--- a/Excel/镇魂街/章节关卡/章节表.xlsx
+++ b/Excel/镇魂街/章节关卡/章节表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\DataConfig\章节关卡\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\DataConfig\章节关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC73A96-00E6-4C5B-897C-CA7566A93CD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chapter" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">level!$D$1:$D$12</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2402,7 +2401,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2644,23 +2643,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2696,23 +2678,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2888,7 +2853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3228,11 +3193,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M114" sqref="M114"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3462,6 +3427,7 @@
         <v>1110102</v>
       </c>
       <c r="H9" s="12">
+        <f t="shared" ref="H9:H22" si="1">G8</f>
         <v>1110101</v>
       </c>
       <c r="I9" s="12">
@@ -3490,6 +3456,7 @@
         <v>1110103</v>
       </c>
       <c r="H10" s="12">
+        <f t="shared" si="1"/>
         <v>1110102</v>
       </c>
       <c r="I10" s="12">
@@ -3518,6 +3485,7 @@
         <v>1110104</v>
       </c>
       <c r="H11" s="12">
+        <f t="shared" si="1"/>
         <v>1110103</v>
       </c>
       <c r="I11" s="12">
@@ -3546,6 +3514,7 @@
         <v>1110105</v>
       </c>
       <c r="H12" s="12">
+        <f t="shared" si="1"/>
         <v>1110104</v>
       </c>
       <c r="I12" s="12">
@@ -3574,6 +3543,7 @@
         <v>1110106</v>
       </c>
       <c r="H13" s="12">
+        <f t="shared" si="1"/>
         <v>1110105</v>
       </c>
       <c r="I13" s="12">
@@ -3601,7 +3571,10 @@
         <f>B14</f>
         <v>1110201</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12">
+        <f t="shared" si="1"/>
+        <v>1110106</v>
+      </c>
       <c r="I14" s="12">
         <v>1</v>
       </c>
@@ -3624,10 +3597,11 @@
         <v>0</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" ref="G15:G78" si="1">B15</f>
+        <f t="shared" ref="G15:G78" si="2">B15</f>
         <v>1110202</v>
       </c>
       <c r="H15" s="12">
+        <f t="shared" si="1"/>
         <v>1110201</v>
       </c>
       <c r="I15" s="12">
@@ -3652,10 +3626,11 @@
         <v>0</v>
       </c>
       <c r="G16" s="12">
+        <f t="shared" si="2"/>
+        <v>1110203</v>
+      </c>
+      <c r="H16" s="12">
         <f t="shared" si="1"/>
-        <v>1110203</v>
-      </c>
-      <c r="H16" s="12">
         <v>1110202</v>
       </c>
       <c r="I16" s="12">
@@ -3680,10 +3655,11 @@
         <v>0</v>
       </c>
       <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>1110204</v>
+      </c>
+      <c r="H17" s="12">
         <f t="shared" si="1"/>
-        <v>1110204</v>
-      </c>
-      <c r="H17" s="12">
         <v>1110203</v>
       </c>
       <c r="I17" s="12">
@@ -3708,10 +3684,11 @@
         <v>0</v>
       </c>
       <c r="G18" s="12">
+        <f t="shared" si="2"/>
+        <v>1110205</v>
+      </c>
+      <c r="H18" s="12">
         <f t="shared" si="1"/>
-        <v>1110205</v>
-      </c>
-      <c r="H18" s="12">
         <v>1110204</v>
       </c>
       <c r="I18" s="12">
@@ -3736,10 +3713,11 @@
         <v>0</v>
       </c>
       <c r="G19" s="12">
+        <f t="shared" si="2"/>
+        <v>1110206</v>
+      </c>
+      <c r="H19" s="12">
         <f t="shared" si="1"/>
-        <v>1110206</v>
-      </c>
-      <c r="H19" s="12">
         <v>1110205</v>
       </c>
       <c r="I19" s="12">
@@ -3764,10 +3742,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="12">
+        <f t="shared" si="2"/>
+        <v>1110207</v>
+      </c>
+      <c r="H20" s="12">
         <f t="shared" si="1"/>
-        <v>1110207</v>
-      </c>
-      <c r="H20" s="12">
         <v>1110206</v>
       </c>
       <c r="I20" s="12">
@@ -3792,10 +3771,11 @@
         <v>0</v>
       </c>
       <c r="G21" s="12">
+        <f t="shared" si="2"/>
+        <v>1110208</v>
+      </c>
+      <c r="H21" s="12">
         <f t="shared" si="1"/>
-        <v>1110208</v>
-      </c>
-      <c r="H21" s="12">
         <v>1110207</v>
       </c>
       <c r="I21" s="12">
@@ -3820,10 +3800,11 @@
         <v>0</v>
       </c>
       <c r="G22" s="12">
+        <f t="shared" si="2"/>
+        <v>1110209</v>
+      </c>
+      <c r="H22" s="12">
         <f t="shared" si="1"/>
-        <v>1110209</v>
-      </c>
-      <c r="H22" s="12">
         <v>1110208</v>
       </c>
       <c r="I22" s="12">
@@ -3848,10 +3829,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110301</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="12">
+        <f>G22</f>
+        <v>1110209</v>
+      </c>
       <c r="I23" s="12">
         <v>1</v>
       </c>
@@ -3874,10 +3858,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110302</v>
       </c>
       <c r="H24" s="12">
+        <f t="shared" ref="H24:H87" si="3">G23</f>
         <v>1110301</v>
       </c>
       <c r="I24" s="12">
@@ -3902,10 +3887,11 @@
         <v>0</v>
       </c>
       <c r="G25" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110303</v>
       </c>
       <c r="H25" s="12">
+        <f t="shared" si="3"/>
         <v>1110302</v>
       </c>
       <c r="I25" s="12">
@@ -3930,10 +3916,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110304</v>
       </c>
       <c r="H26" s="12">
+        <f t="shared" si="3"/>
         <v>1110303</v>
       </c>
       <c r="I26" s="12">
@@ -3958,10 +3945,11 @@
         <v>0</v>
       </c>
       <c r="G27" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110305</v>
       </c>
       <c r="H27" s="12">
+        <f t="shared" si="3"/>
         <v>1110304</v>
       </c>
       <c r="I27" s="12">
@@ -3986,10 +3974,11 @@
         <v>0</v>
       </c>
       <c r="G28" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110306</v>
       </c>
       <c r="H28" s="12">
+        <f t="shared" si="3"/>
         <v>1110305</v>
       </c>
       <c r="I28" s="12">
@@ -4014,10 +4003,11 @@
         <v>0</v>
       </c>
       <c r="G29" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110307</v>
       </c>
       <c r="H29" s="12">
+        <f t="shared" si="3"/>
         <v>1110306</v>
       </c>
       <c r="I29" s="12">
@@ -4042,10 +4032,11 @@
         <v>0</v>
       </c>
       <c r="G30" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110308</v>
       </c>
       <c r="H30" s="12">
+        <f t="shared" si="3"/>
         <v>1110307</v>
       </c>
       <c r="I30" s="12">
@@ -4070,10 +4061,11 @@
         <v>0</v>
       </c>
       <c r="G31" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110309</v>
       </c>
       <c r="H31" s="12">
+        <f t="shared" si="3"/>
         <v>1110308</v>
       </c>
       <c r="I31" s="12">
@@ -4098,10 +4090,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110310</v>
       </c>
       <c r="H32" s="12">
+        <f t="shared" si="3"/>
         <v>1110309</v>
       </c>
       <c r="I32" s="12">
@@ -4126,10 +4119,11 @@
         <v>0</v>
       </c>
       <c r="G33" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110311</v>
       </c>
       <c r="H33" s="12">
+        <f t="shared" si="3"/>
         <v>1110310</v>
       </c>
       <c r="I33" s="12">
@@ -4154,10 +4148,11 @@
         <v>0</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110312</v>
       </c>
       <c r="H34" s="12">
+        <f t="shared" si="3"/>
         <v>1110311</v>
       </c>
       <c r="I34" s="12">
@@ -4182,10 +4177,11 @@
         <v>0</v>
       </c>
       <c r="G35" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110313</v>
       </c>
       <c r="H35" s="12">
+        <f t="shared" si="3"/>
         <v>1110312</v>
       </c>
       <c r="I35" s="12">
@@ -4210,10 +4206,11 @@
         <v>0</v>
       </c>
       <c r="G36" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110314</v>
       </c>
       <c r="H36" s="12">
+        <f t="shared" si="3"/>
         <v>1110313</v>
       </c>
       <c r="I36" s="12">
@@ -4238,10 +4235,11 @@
         <v>0</v>
       </c>
       <c r="G37" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110315</v>
       </c>
       <c r="H37" s="12">
+        <f t="shared" si="3"/>
         <v>1110314</v>
       </c>
       <c r="I37" s="12">
@@ -4266,10 +4264,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110401</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="12">
+        <f t="shared" si="3"/>
+        <v>1110315</v>
+      </c>
       <c r="I38" s="12">
         <v>1</v>
       </c>
@@ -4292,10 +4293,11 @@
         <v>0</v>
       </c>
       <c r="G39" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110402</v>
       </c>
       <c r="H39" s="12">
+        <f t="shared" si="3"/>
         <v>1110401</v>
       </c>
       <c r="I39" s="12">
@@ -4320,10 +4322,11 @@
         <v>0</v>
       </c>
       <c r="G40" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110403</v>
       </c>
       <c r="H40" s="12">
+        <f t="shared" si="3"/>
         <v>1110402</v>
       </c>
       <c r="I40" s="12">
@@ -4348,10 +4351,11 @@
         <v>0</v>
       </c>
       <c r="G41" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110404</v>
       </c>
       <c r="H41" s="12">
+        <f t="shared" si="3"/>
         <v>1110403</v>
       </c>
       <c r="I41" s="12">
@@ -4376,10 +4380,11 @@
         <v>0</v>
       </c>
       <c r="G42" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110405</v>
       </c>
       <c r="H42" s="12">
+        <f t="shared" si="3"/>
         <v>1110404</v>
       </c>
       <c r="I42" s="12">
@@ -4404,10 +4409,11 @@
         <v>0</v>
       </c>
       <c r="G43" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110406</v>
       </c>
       <c r="H43" s="12">
+        <f t="shared" si="3"/>
         <v>1110405</v>
       </c>
       <c r="I43" s="12">
@@ -4432,10 +4438,11 @@
         <v>0</v>
       </c>
       <c r="G44" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110407</v>
       </c>
       <c r="H44" s="12">
+        <f t="shared" si="3"/>
         <v>1110406</v>
       </c>
       <c r="I44" s="12">
@@ -4460,10 +4467,11 @@
         <v>0</v>
       </c>
       <c r="G45" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110408</v>
       </c>
       <c r="H45" s="12">
+        <f t="shared" si="3"/>
         <v>1110407</v>
       </c>
       <c r="I45" s="12">
@@ -4488,10 +4496,11 @@
         <v>0</v>
       </c>
       <c r="G46" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110409</v>
       </c>
       <c r="H46" s="12">
+        <f t="shared" si="3"/>
         <v>1110408</v>
       </c>
       <c r="I46" s="12">
@@ -4516,10 +4525,11 @@
         <v>0</v>
       </c>
       <c r="G47" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110410</v>
       </c>
       <c r="H47" s="12">
+        <f t="shared" si="3"/>
         <v>1110409</v>
       </c>
       <c r="I47" s="12">
@@ -4544,10 +4554,11 @@
         <v>0</v>
       </c>
       <c r="G48" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110411</v>
       </c>
       <c r="H48" s="12">
+        <f t="shared" si="3"/>
         <v>1110410</v>
       </c>
       <c r="I48" s="12">
@@ -4572,10 +4583,11 @@
         <v>0</v>
       </c>
       <c r="G49" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110412</v>
       </c>
       <c r="H49" s="12">
+        <f t="shared" si="3"/>
         <v>1110411</v>
       </c>
       <c r="I49" s="12">
@@ -4600,10 +4612,11 @@
         <v>0</v>
       </c>
       <c r="G50" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110413</v>
       </c>
       <c r="H50" s="12">
+        <f t="shared" si="3"/>
         <v>1110412</v>
       </c>
       <c r="I50" s="12">
@@ -4628,10 +4641,11 @@
         <v>0</v>
       </c>
       <c r="G51" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110414</v>
       </c>
       <c r="H51" s="12">
+        <f t="shared" si="3"/>
         <v>1110413</v>
       </c>
       <c r="I51" s="12">
@@ -4656,10 +4670,11 @@
         <v>0</v>
       </c>
       <c r="G52" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110415</v>
       </c>
       <c r="H52" s="12">
+        <f t="shared" si="3"/>
         <v>1110414</v>
       </c>
       <c r="I52" s="12">
@@ -4684,10 +4699,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110501</v>
       </c>
-      <c r="H53" s="12"/>
+      <c r="H53" s="12">
+        <f t="shared" si="3"/>
+        <v>1110415</v>
+      </c>
       <c r="I53" s="12">
         <v>1</v>
       </c>
@@ -4710,10 +4728,11 @@
         <v>0</v>
       </c>
       <c r="G54" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110502</v>
       </c>
       <c r="H54" s="12">
+        <f t="shared" si="3"/>
         <v>1110501</v>
       </c>
       <c r="I54" s="12">
@@ -4738,10 +4757,11 @@
         <v>0</v>
       </c>
       <c r="G55" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110503</v>
       </c>
       <c r="H55" s="12">
+        <f t="shared" si="3"/>
         <v>1110502</v>
       </c>
       <c r="I55" s="12">
@@ -4766,10 +4786,11 @@
         <v>0</v>
       </c>
       <c r="G56" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110504</v>
       </c>
       <c r="H56" s="12">
+        <f t="shared" si="3"/>
         <v>1110503</v>
       </c>
       <c r="I56" s="12">
@@ -4794,10 +4815,11 @@
         <v>0</v>
       </c>
       <c r="G57" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110505</v>
       </c>
       <c r="H57" s="12">
+        <f t="shared" si="3"/>
         <v>1110504</v>
       </c>
       <c r="I57" s="12">
@@ -4822,10 +4844,11 @@
         <v>0</v>
       </c>
       <c r="G58" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110506</v>
       </c>
       <c r="H58" s="12">
+        <f t="shared" si="3"/>
         <v>1110505</v>
       </c>
       <c r="I58" s="12">
@@ -4850,10 +4873,11 @@
         <v>0</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110507</v>
       </c>
       <c r="H59" s="12">
+        <f t="shared" si="3"/>
         <v>1110506</v>
       </c>
       <c r="I59" s="12">
@@ -4878,10 +4902,11 @@
         <v>0</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110508</v>
       </c>
       <c r="H60" s="12">
+        <f t="shared" si="3"/>
         <v>1110507</v>
       </c>
       <c r="I60" s="12">
@@ -4906,10 +4931,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110509</v>
       </c>
       <c r="H61" s="12">
+        <f t="shared" si="3"/>
         <v>1110508</v>
       </c>
       <c r="I61" s="12">
@@ -4934,10 +4960,11 @@
         <v>0</v>
       </c>
       <c r="G62" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110510</v>
       </c>
       <c r="H62" s="12">
+        <f t="shared" si="3"/>
         <v>1110509</v>
       </c>
       <c r="I62" s="12">
@@ -4962,10 +4989,11 @@
         <v>0</v>
       </c>
       <c r="G63" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110511</v>
       </c>
       <c r="H63" s="12">
+        <f t="shared" si="3"/>
         <v>1110510</v>
       </c>
       <c r="I63" s="12">
@@ -4990,10 +5018,11 @@
         <v>0</v>
       </c>
       <c r="G64" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110512</v>
       </c>
       <c r="H64" s="12">
+        <f t="shared" si="3"/>
         <v>1110511</v>
       </c>
       <c r="I64" s="12">
@@ -5018,10 +5047,11 @@
         <v>0</v>
       </c>
       <c r="G65" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110513</v>
       </c>
       <c r="H65" s="12">
+        <f t="shared" si="3"/>
         <v>1110512</v>
       </c>
       <c r="I65" s="12">
@@ -5046,10 +5076,11 @@
         <v>0</v>
       </c>
       <c r="G66" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110514</v>
       </c>
       <c r="H66" s="12">
+        <f t="shared" si="3"/>
         <v>1110513</v>
       </c>
       <c r="I66" s="12">
@@ -5074,10 +5105,11 @@
         <v>0</v>
       </c>
       <c r="G67" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110515</v>
       </c>
       <c r="H67" s="12">
+        <f t="shared" si="3"/>
         <v>1110514</v>
       </c>
       <c r="I67" s="12">
@@ -5102,10 +5134,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110601</v>
       </c>
-      <c r="H68" s="12"/>
+      <c r="H68" s="12">
+        <f t="shared" si="3"/>
+        <v>1110515</v>
+      </c>
       <c r="I68" s="12">
         <v>1</v>
       </c>
@@ -5128,10 +5163,11 @@
         <v>0</v>
       </c>
       <c r="G69" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110602</v>
       </c>
       <c r="H69" s="12">
+        <f t="shared" si="3"/>
         <v>1110601</v>
       </c>
       <c r="I69" s="12">
@@ -5156,10 +5192,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110603</v>
       </c>
       <c r="H70" s="12">
+        <f t="shared" si="3"/>
         <v>1110602</v>
       </c>
       <c r="I70" s="12">
@@ -5184,10 +5221,11 @@
         <v>0</v>
       </c>
       <c r="G71" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110604</v>
       </c>
       <c r="H71" s="12">
+        <f t="shared" si="3"/>
         <v>1110603</v>
       </c>
       <c r="I71" s="12">
@@ -5212,10 +5250,11 @@
         <v>0</v>
       </c>
       <c r="G72" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110605</v>
       </c>
       <c r="H72" s="12">
+        <f t="shared" si="3"/>
         <v>1110604</v>
       </c>
       <c r="I72" s="12">
@@ -5240,10 +5279,11 @@
         <v>0</v>
       </c>
       <c r="G73" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110606</v>
       </c>
       <c r="H73" s="12">
+        <f t="shared" si="3"/>
         <v>1110605</v>
       </c>
       <c r="I73" s="12">
@@ -5268,10 +5308,11 @@
         <v>0</v>
       </c>
       <c r="G74" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110607</v>
       </c>
       <c r="H74" s="12">
+        <f t="shared" si="3"/>
         <v>1110606</v>
       </c>
       <c r="I74" s="12">
@@ -5296,10 +5337,11 @@
         <v>0</v>
       </c>
       <c r="G75" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110608</v>
       </c>
       <c r="H75" s="12">
+        <f t="shared" si="3"/>
         <v>1110607</v>
       </c>
       <c r="I75" s="12">
@@ -5324,10 +5366,11 @@
         <v>0</v>
       </c>
       <c r="G76" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110609</v>
       </c>
       <c r="H76" s="12">
+        <f t="shared" si="3"/>
         <v>1110608</v>
       </c>
       <c r="I76" s="12">
@@ -5352,10 +5395,11 @@
         <v>0</v>
       </c>
       <c r="G77" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110610</v>
       </c>
       <c r="H77" s="12">
+        <f t="shared" si="3"/>
         <v>1110609</v>
       </c>
       <c r="I77" s="12">
@@ -5380,10 +5424,11 @@
         <v>0</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1110611</v>
       </c>
       <c r="H78" s="12">
+        <f t="shared" si="3"/>
         <v>1110610</v>
       </c>
       <c r="I78" s="12">
@@ -5408,10 +5453,11 @@
         <v>0</v>
       </c>
       <c r="G79" s="12">
-        <f t="shared" ref="G79:G142" si="2">B79</f>
+        <f t="shared" ref="G79:G142" si="4">B79</f>
         <v>1110612</v>
       </c>
       <c r="H79" s="12">
+        <f t="shared" si="3"/>
         <v>1110611</v>
       </c>
       <c r="I79" s="12">
@@ -5436,10 +5482,11 @@
         <v>0</v>
       </c>
       <c r="G80" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110613</v>
       </c>
       <c r="H80" s="12">
+        <f t="shared" si="3"/>
         <v>1110612</v>
       </c>
       <c r="I80" s="12">
@@ -5464,10 +5511,11 @@
         <v>0</v>
       </c>
       <c r="G81" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110614</v>
       </c>
       <c r="H81" s="12">
+        <f t="shared" si="3"/>
         <v>1110613</v>
       </c>
       <c r="I81" s="12">
@@ -5492,10 +5540,11 @@
         <v>0</v>
       </c>
       <c r="G82" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110615</v>
       </c>
       <c r="H82" s="12">
+        <f t="shared" si="3"/>
         <v>1110614</v>
       </c>
       <c r="I82" s="12">
@@ -5520,10 +5569,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110701</v>
       </c>
-      <c r="H83" s="12"/>
+      <c r="H83" s="12">
+        <f t="shared" si="3"/>
+        <v>1110615</v>
+      </c>
       <c r="I83" s="12">
         <v>1</v>
       </c>
@@ -5546,10 +5598,11 @@
         <v>0</v>
       </c>
       <c r="G84" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110702</v>
       </c>
       <c r="H84" s="12">
+        <f t="shared" si="3"/>
         <v>1110701</v>
       </c>
       <c r="I84" s="12">
@@ -5574,10 +5627,11 @@
         <v>0</v>
       </c>
       <c r="G85" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110703</v>
       </c>
       <c r="H85" s="12">
+        <f t="shared" si="3"/>
         <v>1110702</v>
       </c>
       <c r="I85" s="12">
@@ -5602,10 +5656,11 @@
         <v>0</v>
       </c>
       <c r="G86" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110704</v>
       </c>
       <c r="H86" s="12">
+        <f t="shared" si="3"/>
         <v>1110703</v>
       </c>
       <c r="I86" s="12">
@@ -5630,10 +5685,11 @@
         <v>0</v>
       </c>
       <c r="G87" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110705</v>
       </c>
       <c r="H87" s="12">
+        <f t="shared" si="3"/>
         <v>1110704</v>
       </c>
       <c r="I87" s="12">
@@ -5658,10 +5714,11 @@
         <v>0</v>
       </c>
       <c r="G88" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110706</v>
       </c>
       <c r="H88" s="12">
+        <f t="shared" ref="H88:H151" si="5">G87</f>
         <v>1110705</v>
       </c>
       <c r="I88" s="12">
@@ -5686,10 +5743,11 @@
         <v>0</v>
       </c>
       <c r="G89" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110707</v>
       </c>
       <c r="H89" s="12">
+        <f t="shared" si="5"/>
         <v>1110706</v>
       </c>
       <c r="I89" s="12">
@@ -5714,10 +5772,11 @@
         <v>0</v>
       </c>
       <c r="G90" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110708</v>
       </c>
       <c r="H90" s="12">
+        <f t="shared" si="5"/>
         <v>1110707</v>
       </c>
       <c r="I90" s="12">
@@ -5742,10 +5801,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110709</v>
       </c>
       <c r="H91" s="12">
+        <f t="shared" si="5"/>
         <v>1110708</v>
       </c>
       <c r="I91" s="12">
@@ -5770,10 +5830,11 @@
         <v>0</v>
       </c>
       <c r="G92" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110710</v>
       </c>
       <c r="H92" s="12">
+        <f t="shared" si="5"/>
         <v>1110709</v>
       </c>
       <c r="I92" s="12">
@@ -5798,10 +5859,11 @@
         <v>0</v>
       </c>
       <c r="G93" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110711</v>
       </c>
       <c r="H93" s="12">
+        <f t="shared" si="5"/>
         <v>1110710</v>
       </c>
       <c r="I93" s="12">
@@ -5826,10 +5888,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110712</v>
       </c>
       <c r="H94" s="12">
+        <f t="shared" si="5"/>
         <v>1110711</v>
       </c>
       <c r="I94" s="12">
@@ -5854,10 +5917,11 @@
         <v>0</v>
       </c>
       <c r="G95" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110713</v>
       </c>
       <c r="H95" s="12">
+        <f t="shared" si="5"/>
         <v>1110712</v>
       </c>
       <c r="I95" s="12">
@@ -5882,10 +5946,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110714</v>
       </c>
       <c r="H96" s="12">
+        <f t="shared" si="5"/>
         <v>1110713</v>
       </c>
       <c r="I96" s="12">
@@ -5910,10 +5975,11 @@
         <v>0</v>
       </c>
       <c r="G97" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110715</v>
       </c>
       <c r="H97" s="12">
+        <f t="shared" si="5"/>
         <v>1110714</v>
       </c>
       <c r="I97" s="12">
@@ -5938,10 +6004,13 @@
         <v>0</v>
       </c>
       <c r="G98" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110801</v>
       </c>
-      <c r="H98" s="12"/>
+      <c r="H98" s="12">
+        <f t="shared" si="5"/>
+        <v>1110715</v>
+      </c>
       <c r="I98" s="12">
         <v>1</v>
       </c>
@@ -5964,10 +6033,11 @@
         <v>0</v>
       </c>
       <c r="G99" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110802</v>
       </c>
       <c r="H99" s="12">
+        <f t="shared" si="5"/>
         <v>1110801</v>
       </c>
       <c r="I99" s="12">
@@ -5992,10 +6062,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110803</v>
       </c>
       <c r="H100" s="12">
+        <f t="shared" si="5"/>
         <v>1110802</v>
       </c>
       <c r="I100" s="12">
@@ -6020,10 +6091,11 @@
         <v>0</v>
       </c>
       <c r="G101" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110804</v>
       </c>
       <c r="H101" s="12">
+        <f t="shared" si="5"/>
         <v>1110803</v>
       </c>
       <c r="I101" s="12">
@@ -6048,10 +6120,11 @@
         <v>0</v>
       </c>
       <c r="G102" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110805</v>
       </c>
       <c r="H102" s="12">
+        <f t="shared" si="5"/>
         <v>1110804</v>
       </c>
       <c r="I102" s="12">
@@ -6076,10 +6149,11 @@
         <v>0</v>
       </c>
       <c r="G103" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110806</v>
       </c>
       <c r="H103" s="12">
+        <f t="shared" si="5"/>
         <v>1110805</v>
       </c>
       <c r="I103" s="12">
@@ -6104,10 +6178,11 @@
         <v>0</v>
       </c>
       <c r="G104" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110807</v>
       </c>
       <c r="H104" s="12">
+        <f t="shared" si="5"/>
         <v>1110806</v>
       </c>
       <c r="I104" s="12">
@@ -6132,10 +6207,11 @@
         <v>0</v>
       </c>
       <c r="G105" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110808</v>
       </c>
       <c r="H105" s="12">
+        <f t="shared" si="5"/>
         <v>1110807</v>
       </c>
       <c r="I105" s="12">
@@ -6160,10 +6236,11 @@
         <v>0</v>
       </c>
       <c r="G106" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110809</v>
       </c>
       <c r="H106" s="12">
+        <f t="shared" si="5"/>
         <v>1110808</v>
       </c>
       <c r="I106" s="12">
@@ -6188,10 +6265,11 @@
         <v>0</v>
       </c>
       <c r="G107" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110810</v>
       </c>
       <c r="H107" s="12">
+        <f t="shared" si="5"/>
         <v>1110809</v>
       </c>
       <c r="I107" s="12">
@@ -6216,10 +6294,11 @@
         <v>0</v>
       </c>
       <c r="G108" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110811</v>
       </c>
       <c r="H108" s="12">
+        <f t="shared" si="5"/>
         <v>1110810</v>
       </c>
       <c r="I108" s="12">
@@ -6244,10 +6323,11 @@
         <v>0</v>
       </c>
       <c r="G109" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110812</v>
       </c>
       <c r="H109" s="12">
+        <f t="shared" si="5"/>
         <v>1110811</v>
       </c>
       <c r="I109" s="12">
@@ -6272,10 +6352,11 @@
         <v>0</v>
       </c>
       <c r="G110" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110813</v>
       </c>
       <c r="H110" s="12">
+        <f t="shared" si="5"/>
         <v>1110812</v>
       </c>
       <c r="I110" s="12">
@@ -6300,10 +6381,11 @@
         <v>0</v>
       </c>
       <c r="G111" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110814</v>
       </c>
       <c r="H111" s="12">
+        <f t="shared" si="5"/>
         <v>1110813</v>
       </c>
       <c r="I111" s="12">
@@ -6328,10 +6410,11 @@
         <v>0</v>
       </c>
       <c r="G112" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110815</v>
       </c>
       <c r="H112" s="12">
+        <f t="shared" si="5"/>
         <v>1110814</v>
       </c>
       <c r="I112" s="12">
@@ -6356,10 +6439,13 @@
         <v>0</v>
       </c>
       <c r="G113" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110901</v>
       </c>
-      <c r="H113" s="12"/>
+      <c r="H113" s="12">
+        <f t="shared" si="5"/>
+        <v>1110815</v>
+      </c>
       <c r="I113" s="12">
         <v>1</v>
       </c>
@@ -6382,10 +6468,11 @@
         <v>0</v>
       </c>
       <c r="G114" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110902</v>
       </c>
       <c r="H114" s="12">
+        <f t="shared" si="5"/>
         <v>1110901</v>
       </c>
       <c r="I114" s="12">
@@ -6410,10 +6497,11 @@
         <v>0</v>
       </c>
       <c r="G115" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110903</v>
       </c>
       <c r="H115" s="12">
+        <f t="shared" si="5"/>
         <v>1110902</v>
       </c>
       <c r="I115" s="12">
@@ -6438,10 +6526,11 @@
         <v>0</v>
       </c>
       <c r="G116" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110904</v>
       </c>
       <c r="H116" s="12">
+        <f t="shared" si="5"/>
         <v>1110903</v>
       </c>
       <c r="I116" s="12">
@@ -6466,10 +6555,11 @@
         <v>0</v>
       </c>
       <c r="G117" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110905</v>
       </c>
       <c r="H117" s="12">
+        <f t="shared" si="5"/>
         <v>1110904</v>
       </c>
       <c r="I117" s="12">
@@ -6494,10 +6584,11 @@
         <v>0</v>
       </c>
       <c r="G118" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110906</v>
       </c>
       <c r="H118" s="12">
+        <f t="shared" si="5"/>
         <v>1110905</v>
       </c>
       <c r="I118" s="12">
@@ -6522,10 +6613,11 @@
         <v>0</v>
       </c>
       <c r="G119" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110907</v>
       </c>
       <c r="H119" s="12">
+        <f t="shared" si="5"/>
         <v>1110906</v>
       </c>
       <c r="I119" s="12">
@@ -6550,10 +6642,11 @@
         <v>0</v>
       </c>
       <c r="G120" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110908</v>
       </c>
       <c r="H120" s="12">
+        <f t="shared" si="5"/>
         <v>1110907</v>
       </c>
       <c r="I120" s="12">
@@ -6578,10 +6671,11 @@
         <v>0</v>
       </c>
       <c r="G121" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110909</v>
       </c>
       <c r="H121" s="12">
+        <f t="shared" si="5"/>
         <v>1110908</v>
       </c>
       <c r="I121" s="12">
@@ -6606,10 +6700,11 @@
         <v>0</v>
       </c>
       <c r="G122" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110910</v>
       </c>
       <c r="H122" s="12">
+        <f t="shared" si="5"/>
         <v>1110909</v>
       </c>
       <c r="I122" s="12">
@@ -6634,10 +6729,11 @@
         <v>0</v>
       </c>
       <c r="G123" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110911</v>
       </c>
       <c r="H123" s="12">
+        <f t="shared" si="5"/>
         <v>1110910</v>
       </c>
       <c r="I123" s="12">
@@ -6662,10 +6758,11 @@
         <v>0</v>
       </c>
       <c r="G124" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110912</v>
       </c>
       <c r="H124" s="12">
+        <f t="shared" si="5"/>
         <v>1110911</v>
       </c>
       <c r="I124" s="12">
@@ -6690,10 +6787,11 @@
         <v>0</v>
       </c>
       <c r="G125" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110913</v>
       </c>
       <c r="H125" s="12">
+        <f t="shared" si="5"/>
         <v>1110912</v>
       </c>
       <c r="I125" s="12">
@@ -6718,10 +6816,11 @@
         <v>0</v>
       </c>
       <c r="G126" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110914</v>
       </c>
       <c r="H126" s="12">
+        <f t="shared" si="5"/>
         <v>1110913</v>
       </c>
       <c r="I126" s="12">
@@ -6746,10 +6845,11 @@
         <v>0</v>
       </c>
       <c r="G127" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1110915</v>
       </c>
       <c r="H127" s="12">
+        <f t="shared" si="5"/>
         <v>1110914</v>
       </c>
       <c r="I127" s="12">
@@ -6774,10 +6874,12 @@
         <v>0</v>
       </c>
       <c r="G128" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120101</v>
       </c>
-      <c r="H128" s="12"/>
+      <c r="H128" s="12">
+        <v>1110106</v>
+      </c>
       <c r="I128" s="12">
         <v>1</v>
       </c>
@@ -6800,10 +6902,11 @@
         <v>0</v>
       </c>
       <c r="G129" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120102</v>
       </c>
       <c r="H129" s="12">
+        <f t="shared" si="5"/>
         <v>1120101</v>
       </c>
       <c r="I129" s="12">
@@ -6828,10 +6931,11 @@
         <v>0</v>
       </c>
       <c r="G130" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120103</v>
       </c>
       <c r="H130" s="12">
+        <f t="shared" si="5"/>
         <v>1120102</v>
       </c>
       <c r="I130" s="12">
@@ -6856,10 +6960,11 @@
         <v>0</v>
       </c>
       <c r="G131" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120104</v>
       </c>
       <c r="H131" s="12">
+        <f t="shared" si="5"/>
         <v>1120103</v>
       </c>
       <c r="I131" s="12">
@@ -6884,10 +6989,11 @@
         <v>0</v>
       </c>
       <c r="G132" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120105</v>
       </c>
       <c r="H132" s="12">
+        <f t="shared" si="5"/>
         <v>1120104</v>
       </c>
       <c r="I132" s="12">
@@ -6912,10 +7018,11 @@
         <v>0</v>
       </c>
       <c r="G133" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120106</v>
       </c>
       <c r="H133" s="12">
+        <f t="shared" si="5"/>
         <v>1120105</v>
       </c>
       <c r="I133" s="12">
@@ -6940,10 +7047,13 @@
         <v>0</v>
       </c>
       <c r="G134" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120201</v>
       </c>
-      <c r="H134" s="12"/>
+      <c r="H134" s="12">
+        <f t="shared" si="5"/>
+        <v>1120106</v>
+      </c>
       <c r="I134" s="12">
         <v>1</v>
       </c>
@@ -6966,10 +7076,11 @@
         <v>0</v>
       </c>
       <c r="G135" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120202</v>
       </c>
       <c r="H135" s="12">
+        <f t="shared" si="5"/>
         <v>1120201</v>
       </c>
       <c r="I135" s="12">
@@ -6994,10 +7105,11 @@
         <v>0</v>
       </c>
       <c r="G136" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120203</v>
       </c>
       <c r="H136" s="12">
+        <f t="shared" si="5"/>
         <v>1120202</v>
       </c>
       <c r="I136" s="12">
@@ -7022,10 +7134,11 @@
         <v>0</v>
       </c>
       <c r="G137" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120204</v>
       </c>
       <c r="H137" s="12">
+        <f t="shared" si="5"/>
         <v>1120203</v>
       </c>
       <c r="I137" s="12">
@@ -7050,10 +7163,11 @@
         <v>0</v>
       </c>
       <c r="G138" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120205</v>
       </c>
       <c r="H138" s="12">
+        <f t="shared" si="5"/>
         <v>1120204</v>
       </c>
       <c r="I138" s="12">
@@ -7078,10 +7192,11 @@
         <v>0</v>
       </c>
       <c r="G139" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120206</v>
       </c>
       <c r="H139" s="12">
+        <f t="shared" si="5"/>
         <v>1120205</v>
       </c>
       <c r="I139" s="12">
@@ -7106,10 +7221,11 @@
         <v>0</v>
       </c>
       <c r="G140" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120207</v>
       </c>
       <c r="H140" s="12">
+        <f t="shared" si="5"/>
         <v>1120206</v>
       </c>
       <c r="I140" s="12">
@@ -7134,10 +7250,11 @@
         <v>0</v>
       </c>
       <c r="G141" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120208</v>
       </c>
       <c r="H141" s="12">
+        <f t="shared" si="5"/>
         <v>1120207</v>
       </c>
       <c r="I141" s="12">
@@ -7162,10 +7279,11 @@
         <v>0</v>
       </c>
       <c r="G142" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1120209</v>
       </c>
       <c r="H142" s="12">
+        <f t="shared" si="5"/>
         <v>1120208</v>
       </c>
       <c r="I142" s="12">
@@ -7190,10 +7308,13 @@
         <v>0</v>
       </c>
       <c r="G143" s="12">
-        <f t="shared" ref="G143:G206" si="3">B143</f>
+        <f t="shared" ref="G143:G206" si="6">B143</f>
         <v>1120301</v>
       </c>
-      <c r="H143" s="12"/>
+      <c r="H143" s="12">
+        <f t="shared" si="5"/>
+        <v>1120209</v>
+      </c>
       <c r="I143" s="12">
         <v>1</v>
       </c>
@@ -7216,10 +7337,11 @@
         <v>0</v>
       </c>
       <c r="G144" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120302</v>
       </c>
       <c r="H144" s="12">
+        <f t="shared" si="5"/>
         <v>1120301</v>
       </c>
       <c r="I144" s="12">
@@ -7244,10 +7366,11 @@
         <v>0</v>
       </c>
       <c r="G145" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120303</v>
       </c>
       <c r="H145" s="12">
+        <f t="shared" si="5"/>
         <v>1120302</v>
       </c>
       <c r="I145" s="12">
@@ -7272,10 +7395,11 @@
         <v>0</v>
       </c>
       <c r="G146" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120304</v>
       </c>
       <c r="H146" s="12">
+        <f t="shared" si="5"/>
         <v>1120303</v>
       </c>
       <c r="I146" s="12">
@@ -7300,10 +7424,11 @@
         <v>0</v>
       </c>
       <c r="G147" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120305</v>
       </c>
       <c r="H147" s="12">
+        <f t="shared" si="5"/>
         <v>1120304</v>
       </c>
       <c r="I147" s="12">
@@ -7328,10 +7453,11 @@
         <v>0</v>
       </c>
       <c r="G148" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120306</v>
       </c>
       <c r="H148" s="12">
+        <f t="shared" si="5"/>
         <v>1120305</v>
       </c>
       <c r="I148" s="12">
@@ -7356,10 +7482,11 @@
         <v>0</v>
       </c>
       <c r="G149" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120307</v>
       </c>
       <c r="H149" s="12">
+        <f t="shared" si="5"/>
         <v>1120306</v>
       </c>
       <c r="I149" s="12">
@@ -7384,10 +7511,11 @@
         <v>0</v>
       </c>
       <c r="G150" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120308</v>
       </c>
       <c r="H150" s="12">
+        <f t="shared" si="5"/>
         <v>1120307</v>
       </c>
       <c r="I150" s="12">
@@ -7412,10 +7540,11 @@
         <v>0</v>
       </c>
       <c r="G151" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120309</v>
       </c>
       <c r="H151" s="12">
+        <f t="shared" si="5"/>
         <v>1120308</v>
       </c>
       <c r="I151" s="12">
@@ -7440,10 +7569,11 @@
         <v>0</v>
       </c>
       <c r="G152" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120310</v>
       </c>
       <c r="H152" s="12">
+        <f t="shared" ref="H152:H215" si="7">G151</f>
         <v>1120309</v>
       </c>
       <c r="I152" s="12">
@@ -7468,10 +7598,11 @@
         <v>0</v>
       </c>
       <c r="G153" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120311</v>
       </c>
       <c r="H153" s="12">
+        <f t="shared" si="7"/>
         <v>1120310</v>
       </c>
       <c r="I153" s="12">
@@ -7496,10 +7627,11 @@
         <v>0</v>
       </c>
       <c r="G154" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120312</v>
       </c>
       <c r="H154" s="12">
+        <f t="shared" si="7"/>
         <v>1120311</v>
       </c>
       <c r="I154" s="12">
@@ -7524,10 +7656,11 @@
         <v>0</v>
       </c>
       <c r="G155" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120313</v>
       </c>
       <c r="H155" s="12">
+        <f t="shared" si="7"/>
         <v>1120312</v>
       </c>
       <c r="I155" s="12">
@@ -7552,10 +7685,11 @@
         <v>0</v>
       </c>
       <c r="G156" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120314</v>
       </c>
       <c r="H156" s="12">
+        <f t="shared" si="7"/>
         <v>1120313</v>
       </c>
       <c r="I156" s="12">
@@ -7580,10 +7714,11 @@
         <v>0</v>
       </c>
       <c r="G157" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120315</v>
       </c>
       <c r="H157" s="12">
+        <f t="shared" si="7"/>
         <v>1120314</v>
       </c>
       <c r="I157" s="12">
@@ -7608,10 +7743,13 @@
         <v>0</v>
       </c>
       <c r="G158" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120401</v>
       </c>
-      <c r="H158" s="12"/>
+      <c r="H158" s="12">
+        <f t="shared" si="7"/>
+        <v>1120315</v>
+      </c>
       <c r="I158" s="12">
         <v>1</v>
       </c>
@@ -7634,10 +7772,11 @@
         <v>0</v>
       </c>
       <c r="G159" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120402</v>
       </c>
       <c r="H159" s="12">
+        <f t="shared" si="7"/>
         <v>1120401</v>
       </c>
       <c r="I159" s="12">
@@ -7662,10 +7801,11 @@
         <v>0</v>
       </c>
       <c r="G160" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120403</v>
       </c>
       <c r="H160" s="12">
+        <f t="shared" si="7"/>
         <v>1120402</v>
       </c>
       <c r="I160" s="12">
@@ -7690,10 +7830,11 @@
         <v>0</v>
       </c>
       <c r="G161" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120404</v>
       </c>
       <c r="H161" s="12">
+        <f t="shared" si="7"/>
         <v>1120403</v>
       </c>
       <c r="I161" s="12">
@@ -7718,10 +7859,11 @@
         <v>0</v>
       </c>
       <c r="G162" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120405</v>
       </c>
       <c r="H162" s="12">
+        <f t="shared" si="7"/>
         <v>1120404</v>
       </c>
       <c r="I162" s="12">
@@ -7746,10 +7888,11 @@
         <v>0</v>
       </c>
       <c r="G163" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120406</v>
       </c>
       <c r="H163" s="12">
+        <f t="shared" si="7"/>
         <v>1120405</v>
       </c>
       <c r="I163" s="12">
@@ -7774,10 +7917,11 @@
         <v>0</v>
       </c>
       <c r="G164" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120407</v>
       </c>
       <c r="H164" s="12">
+        <f t="shared" si="7"/>
         <v>1120406</v>
       </c>
       <c r="I164" s="12">
@@ -7802,10 +7946,11 @@
         <v>0</v>
       </c>
       <c r="G165" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120408</v>
       </c>
       <c r="H165" s="12">
+        <f t="shared" si="7"/>
         <v>1120407</v>
       </c>
       <c r="I165" s="12">
@@ -7830,10 +7975,11 @@
         <v>0</v>
       </c>
       <c r="G166" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120409</v>
       </c>
       <c r="H166" s="12">
+        <f t="shared" si="7"/>
         <v>1120408</v>
       </c>
       <c r="I166" s="12">
@@ -7858,10 +8004,11 @@
         <v>0</v>
       </c>
       <c r="G167" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120410</v>
       </c>
       <c r="H167" s="12">
+        <f t="shared" si="7"/>
         <v>1120409</v>
       </c>
       <c r="I167" s="12">
@@ -7886,10 +8033,11 @@
         <v>0</v>
       </c>
       <c r="G168" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120411</v>
       </c>
       <c r="H168" s="12">
+        <f t="shared" si="7"/>
         <v>1120410</v>
       </c>
       <c r="I168" s="12">
@@ -7914,10 +8062,11 @@
         <v>0</v>
       </c>
       <c r="G169" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120412</v>
       </c>
       <c r="H169" s="12">
+        <f t="shared" si="7"/>
         <v>1120411</v>
       </c>
       <c r="I169" s="12">
@@ -7942,10 +8091,11 @@
         <v>0</v>
       </c>
       <c r="G170" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120413</v>
       </c>
       <c r="H170" s="12">
+        <f t="shared" si="7"/>
         <v>1120412</v>
       </c>
       <c r="I170" s="12">
@@ -7970,10 +8120,11 @@
         <v>0</v>
       </c>
       <c r="G171" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120414</v>
       </c>
       <c r="H171" s="12">
+        <f t="shared" si="7"/>
         <v>1120413</v>
       </c>
       <c r="I171" s="12">
@@ -7998,10 +8149,11 @@
         <v>0</v>
       </c>
       <c r="G172" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120415</v>
       </c>
       <c r="H172" s="12">
+        <f t="shared" si="7"/>
         <v>1120414</v>
       </c>
       <c r="I172" s="12">
@@ -8026,10 +8178,13 @@
         <v>0</v>
       </c>
       <c r="G173" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120501</v>
       </c>
-      <c r="H173" s="12"/>
+      <c r="H173" s="12">
+        <f t="shared" si="7"/>
+        <v>1120415</v>
+      </c>
       <c r="I173" s="12">
         <v>1</v>
       </c>
@@ -8052,10 +8207,11 @@
         <v>0</v>
       </c>
       <c r="G174" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120502</v>
       </c>
       <c r="H174" s="12">
+        <f t="shared" si="7"/>
         <v>1120501</v>
       </c>
       <c r="I174" s="12">
@@ -8080,10 +8236,11 @@
         <v>0</v>
       </c>
       <c r="G175" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120503</v>
       </c>
       <c r="H175" s="12">
+        <f t="shared" si="7"/>
         <v>1120502</v>
       </c>
       <c r="I175" s="12">
@@ -8108,10 +8265,11 @@
         <v>0</v>
       </c>
       <c r="G176" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120504</v>
       </c>
       <c r="H176" s="12">
+        <f t="shared" si="7"/>
         <v>1120503</v>
       </c>
       <c r="I176" s="12">
@@ -8136,10 +8294,11 @@
         <v>0</v>
       </c>
       <c r="G177" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120505</v>
       </c>
       <c r="H177" s="12">
+        <f t="shared" si="7"/>
         <v>1120504</v>
       </c>
       <c r="I177" s="12">
@@ -8164,10 +8323,11 @@
         <v>0</v>
       </c>
       <c r="G178" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120506</v>
       </c>
       <c r="H178" s="12">
+        <f t="shared" si="7"/>
         <v>1120505</v>
       </c>
       <c r="I178" s="12">
@@ -8192,10 +8352,11 @@
         <v>0</v>
       </c>
       <c r="G179" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120507</v>
       </c>
       <c r="H179" s="12">
+        <f t="shared" si="7"/>
         <v>1120506</v>
       </c>
       <c r="I179" s="12">
@@ -8220,10 +8381,11 @@
         <v>0</v>
       </c>
       <c r="G180" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120508</v>
       </c>
       <c r="H180" s="12">
+        <f t="shared" si="7"/>
         <v>1120507</v>
       </c>
       <c r="I180" s="12">
@@ -8248,10 +8410,11 @@
         <v>0</v>
       </c>
       <c r="G181" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120509</v>
       </c>
       <c r="H181" s="12">
+        <f t="shared" si="7"/>
         <v>1120508</v>
       </c>
       <c r="I181" s="12">
@@ -8276,10 +8439,11 @@
         <v>0</v>
       </c>
       <c r="G182" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120510</v>
       </c>
       <c r="H182" s="12">
+        <f t="shared" si="7"/>
         <v>1120509</v>
       </c>
       <c r="I182" s="12">
@@ -8304,10 +8468,11 @@
         <v>0</v>
       </c>
       <c r="G183" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120511</v>
       </c>
       <c r="H183" s="12">
+        <f t="shared" si="7"/>
         <v>1120510</v>
       </c>
       <c r="I183" s="12">
@@ -8332,10 +8497,11 @@
         <v>0</v>
       </c>
       <c r="G184" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120512</v>
       </c>
       <c r="H184" s="12">
+        <f t="shared" si="7"/>
         <v>1120511</v>
       </c>
       <c r="I184" s="12">
@@ -8360,10 +8526,11 @@
         <v>0</v>
       </c>
       <c r="G185" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120513</v>
       </c>
       <c r="H185" s="12">
+        <f t="shared" si="7"/>
         <v>1120512</v>
       </c>
       <c r="I185" s="12">
@@ -8388,10 +8555,11 @@
         <v>0</v>
       </c>
       <c r="G186" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120514</v>
       </c>
       <c r="H186" s="12">
+        <f t="shared" si="7"/>
         <v>1120513</v>
       </c>
       <c r="I186" s="12">
@@ -8416,10 +8584,11 @@
         <v>0</v>
       </c>
       <c r="G187" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120515</v>
       </c>
       <c r="H187" s="12">
+        <f t="shared" si="7"/>
         <v>1120514</v>
       </c>
       <c r="I187" s="12">
@@ -8444,10 +8613,13 @@
         <v>0</v>
       </c>
       <c r="G188" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120601</v>
       </c>
-      <c r="H188" s="12"/>
+      <c r="H188" s="12">
+        <f t="shared" si="7"/>
+        <v>1120515</v>
+      </c>
       <c r="I188" s="12">
         <v>1</v>
       </c>
@@ -8470,10 +8642,11 @@
         <v>0</v>
       </c>
       <c r="G189" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120602</v>
       </c>
       <c r="H189" s="12">
+        <f t="shared" si="7"/>
         <v>1120601</v>
       </c>
       <c r="I189" s="12">
@@ -8498,10 +8671,11 @@
         <v>0</v>
       </c>
       <c r="G190" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120603</v>
       </c>
       <c r="H190" s="12">
+        <f t="shared" si="7"/>
         <v>1120602</v>
       </c>
       <c r="I190" s="12">
@@ -8526,10 +8700,11 @@
         <v>0</v>
       </c>
       <c r="G191" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120604</v>
       </c>
       <c r="H191" s="12">
+        <f t="shared" si="7"/>
         <v>1120603</v>
       </c>
       <c r="I191" s="12">
@@ -8554,10 +8729,11 @@
         <v>0</v>
       </c>
       <c r="G192" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120605</v>
       </c>
       <c r="H192" s="12">
+        <f t="shared" si="7"/>
         <v>1120604</v>
       </c>
       <c r="I192" s="12">
@@ -8582,10 +8758,11 @@
         <v>0</v>
       </c>
       <c r="G193" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120606</v>
       </c>
       <c r="H193" s="12">
+        <f t="shared" si="7"/>
         <v>1120605</v>
       </c>
       <c r="I193" s="12">
@@ -8610,10 +8787,11 @@
         <v>0</v>
       </c>
       <c r="G194" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120607</v>
       </c>
       <c r="H194" s="12">
+        <f t="shared" si="7"/>
         <v>1120606</v>
       </c>
       <c r="I194" s="12">
@@ -8638,10 +8816,11 @@
         <v>0</v>
       </c>
       <c r="G195" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120608</v>
       </c>
       <c r="H195" s="12">
+        <f t="shared" si="7"/>
         <v>1120607</v>
       </c>
       <c r="I195" s="12">
@@ -8666,10 +8845,11 @@
         <v>0</v>
       </c>
       <c r="G196" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120609</v>
       </c>
       <c r="H196" s="12">
+        <f t="shared" si="7"/>
         <v>1120608</v>
       </c>
       <c r="I196" s="12">
@@ -8694,10 +8874,11 @@
         <v>0</v>
       </c>
       <c r="G197" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120610</v>
       </c>
       <c r="H197" s="12">
+        <f t="shared" si="7"/>
         <v>1120609</v>
       </c>
       <c r="I197" s="12">
@@ -8722,10 +8903,11 @@
         <v>0</v>
       </c>
       <c r="G198" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120611</v>
       </c>
       <c r="H198" s="12">
+        <f t="shared" si="7"/>
         <v>1120610</v>
       </c>
       <c r="I198" s="12">
@@ -8750,10 +8932,11 @@
         <v>0</v>
       </c>
       <c r="G199" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120612</v>
       </c>
       <c r="H199" s="12">
+        <f t="shared" si="7"/>
         <v>1120611</v>
       </c>
       <c r="I199" s="12">
@@ -8778,10 +8961,11 @@
         <v>0</v>
       </c>
       <c r="G200" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120613</v>
       </c>
       <c r="H200" s="12">
+        <f t="shared" si="7"/>
         <v>1120612</v>
       </c>
       <c r="I200" s="12">
@@ -8806,10 +8990,11 @@
         <v>0</v>
       </c>
       <c r="G201" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120614</v>
       </c>
       <c r="H201" s="12">
+        <f t="shared" si="7"/>
         <v>1120613</v>
       </c>
       <c r="I201" s="12">
@@ -8834,10 +9019,11 @@
         <v>0</v>
       </c>
       <c r="G202" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120615</v>
       </c>
       <c r="H202" s="12">
+        <f t="shared" si="7"/>
         <v>1120614</v>
       </c>
       <c r="I202" s="12">
@@ -8862,10 +9048,13 @@
         <v>0</v>
       </c>
       <c r="G203" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120701</v>
       </c>
-      <c r="H203" s="12"/>
+      <c r="H203" s="12">
+        <f t="shared" si="7"/>
+        <v>1120615</v>
+      </c>
       <c r="I203" s="12">
         <v>1</v>
       </c>
@@ -8888,10 +9077,11 @@
         <v>0</v>
       </c>
       <c r="G204" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120702</v>
       </c>
       <c r="H204" s="12">
+        <f t="shared" si="7"/>
         <v>1120701</v>
       </c>
       <c r="I204" s="12">
@@ -8916,10 +9106,11 @@
         <v>0</v>
       </c>
       <c r="G205" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120703</v>
       </c>
       <c r="H205" s="12">
+        <f t="shared" si="7"/>
         <v>1120702</v>
       </c>
       <c r="I205" s="12">
@@ -8944,10 +9135,11 @@
         <v>0</v>
       </c>
       <c r="G206" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1120704</v>
       </c>
       <c r="H206" s="12">
+        <f t="shared" si="7"/>
         <v>1120703</v>
       </c>
       <c r="I206" s="12">
@@ -8972,10 +9164,11 @@
         <v>0</v>
       </c>
       <c r="G207" s="12">
-        <f t="shared" ref="G207:G247" si="4">B207</f>
+        <f t="shared" ref="G207:G247" si="8">B207</f>
         <v>1120705</v>
       </c>
       <c r="H207" s="12">
+        <f t="shared" si="7"/>
         <v>1120704</v>
       </c>
       <c r="I207" s="12">
@@ -9000,10 +9193,11 @@
         <v>0</v>
       </c>
       <c r="G208" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120706</v>
       </c>
       <c r="H208" s="12">
+        <f t="shared" si="7"/>
         <v>1120705</v>
       </c>
       <c r="I208" s="12">
@@ -9028,10 +9222,11 @@
         <v>0</v>
       </c>
       <c r="G209" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120707</v>
       </c>
       <c r="H209" s="12">
+        <f t="shared" si="7"/>
         <v>1120706</v>
       </c>
       <c r="I209" s="12">
@@ -9056,10 +9251,11 @@
         <v>0</v>
       </c>
       <c r="G210" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120708</v>
       </c>
       <c r="H210" s="12">
+        <f t="shared" si="7"/>
         <v>1120707</v>
       </c>
       <c r="I210" s="12">
@@ -9084,10 +9280,11 @@
         <v>0</v>
       </c>
       <c r="G211" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120709</v>
       </c>
       <c r="H211" s="12">
+        <f t="shared" si="7"/>
         <v>1120708</v>
       </c>
       <c r="I211" s="12">
@@ -9112,10 +9309,11 @@
         <v>0</v>
       </c>
       <c r="G212" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120710</v>
       </c>
       <c r="H212" s="12">
+        <f t="shared" si="7"/>
         <v>1120709</v>
       </c>
       <c r="I212" s="12">
@@ -9140,10 +9338,11 @@
         <v>0</v>
       </c>
       <c r="G213" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120711</v>
       </c>
       <c r="H213" s="12">
+        <f t="shared" si="7"/>
         <v>1120710</v>
       </c>
       <c r="I213" s="12">
@@ -9168,10 +9367,11 @@
         <v>0</v>
       </c>
       <c r="G214" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120712</v>
       </c>
       <c r="H214" s="12">
+        <f t="shared" si="7"/>
         <v>1120711</v>
       </c>
       <c r="I214" s="12">
@@ -9196,10 +9396,11 @@
         <v>0</v>
       </c>
       <c r="G215" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120713</v>
       </c>
       <c r="H215" s="12">
+        <f t="shared" si="7"/>
         <v>1120712</v>
       </c>
       <c r="I215" s="12">
@@ -9224,10 +9425,11 @@
         <v>0</v>
       </c>
       <c r="G216" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120714</v>
       </c>
       <c r="H216" s="12">
+        <f t="shared" ref="H216:H247" si="9">G215</f>
         <v>1120713</v>
       </c>
       <c r="I216" s="12">
@@ -9252,10 +9454,11 @@
         <v>0</v>
       </c>
       <c r="G217" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120715</v>
       </c>
       <c r="H217" s="12">
+        <f t="shared" si="9"/>
         <v>1120714</v>
       </c>
       <c r="I217" s="12">
@@ -9280,10 +9483,13 @@
         <v>0</v>
       </c>
       <c r="G218" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120801</v>
       </c>
-      <c r="H218" s="12"/>
+      <c r="H218" s="12">
+        <f t="shared" si="9"/>
+        <v>1120715</v>
+      </c>
       <c r="I218" s="12">
         <v>1</v>
       </c>
@@ -9306,10 +9512,11 @@
         <v>0</v>
       </c>
       <c r="G219" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120802</v>
       </c>
       <c r="H219" s="12">
+        <f t="shared" si="9"/>
         <v>1120801</v>
       </c>
       <c r="I219" s="12">
@@ -9334,10 +9541,11 @@
         <v>0</v>
       </c>
       <c r="G220" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120803</v>
       </c>
       <c r="H220" s="12">
+        <f t="shared" si="9"/>
         <v>1120802</v>
       </c>
       <c r="I220" s="12">
@@ -9362,10 +9570,11 @@
         <v>0</v>
       </c>
       <c r="G221" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120804</v>
       </c>
       <c r="H221" s="12">
+        <f t="shared" si="9"/>
         <v>1120803</v>
       </c>
       <c r="I221" s="12">
@@ -9390,10 +9599,11 @@
         <v>0</v>
       </c>
       <c r="G222" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120805</v>
       </c>
       <c r="H222" s="12">
+        <f t="shared" si="9"/>
         <v>1120804</v>
       </c>
       <c r="I222" s="12">
@@ -9418,10 +9628,11 @@
         <v>0</v>
       </c>
       <c r="G223" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120806</v>
       </c>
       <c r="H223" s="12">
+        <f t="shared" si="9"/>
         <v>1120805</v>
       </c>
       <c r="I223" s="12">
@@ -9446,10 +9657,11 @@
         <v>0</v>
       </c>
       <c r="G224" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120807</v>
       </c>
       <c r="H224" s="12">
+        <f t="shared" si="9"/>
         <v>1120806</v>
       </c>
       <c r="I224" s="12">
@@ -9474,10 +9686,11 @@
         <v>0</v>
       </c>
       <c r="G225" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120808</v>
       </c>
       <c r="H225" s="12">
+        <f t="shared" si="9"/>
         <v>1120807</v>
       </c>
       <c r="I225" s="12">
@@ -9502,10 +9715,11 @@
         <v>0</v>
       </c>
       <c r="G226" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120809</v>
       </c>
       <c r="H226" s="12">
+        <f t="shared" si="9"/>
         <v>1120808</v>
       </c>
       <c r="I226" s="12">
@@ -9530,10 +9744,11 @@
         <v>0</v>
       </c>
       <c r="G227" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120810</v>
       </c>
       <c r="H227" s="12">
+        <f t="shared" si="9"/>
         <v>1120809</v>
       </c>
       <c r="I227" s="12">
@@ -9558,10 +9773,11 @@
         <v>0</v>
       </c>
       <c r="G228" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120811</v>
       </c>
       <c r="H228" s="12">
+        <f t="shared" si="9"/>
         <v>1120810</v>
       </c>
       <c r="I228" s="12">
@@ -9586,10 +9802,11 @@
         <v>0</v>
       </c>
       <c r="G229" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120812</v>
       </c>
       <c r="H229" s="12">
+        <f t="shared" si="9"/>
         <v>1120811</v>
       </c>
       <c r="I229" s="12">
@@ -9614,10 +9831,11 @@
         <v>0</v>
       </c>
       <c r="G230" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120813</v>
       </c>
       <c r="H230" s="12">
+        <f t="shared" si="9"/>
         <v>1120812</v>
       </c>
       <c r="I230" s="12">
@@ -9642,10 +9860,11 @@
         <v>0</v>
       </c>
       <c r="G231" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120814</v>
       </c>
       <c r="H231" s="12">
+        <f t="shared" si="9"/>
         <v>1120813</v>
       </c>
       <c r="I231" s="12">
@@ -9670,10 +9889,11 @@
         <v>0</v>
       </c>
       <c r="G232" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120815</v>
       </c>
       <c r="H232" s="12">
+        <f t="shared" si="9"/>
         <v>1120814</v>
       </c>
       <c r="I232" s="12">
@@ -9698,10 +9918,13 @@
         <v>0</v>
       </c>
       <c r="G233" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120901</v>
       </c>
-      <c r="H233" s="12"/>
+      <c r="H233" s="12">
+        <f t="shared" si="9"/>
+        <v>1120815</v>
+      </c>
       <c r="I233" s="12">
         <v>1</v>
       </c>
@@ -9724,10 +9947,11 @@
         <v>0</v>
       </c>
       <c r="G234" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120902</v>
       </c>
       <c r="H234" s="12">
+        <f t="shared" si="9"/>
         <v>1120901</v>
       </c>
       <c r="I234" s="12">
@@ -9752,10 +9976,11 @@
         <v>0</v>
       </c>
       <c r="G235" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120903</v>
       </c>
       <c r="H235" s="12">
+        <f t="shared" si="9"/>
         <v>1120902</v>
       </c>
       <c r="I235" s="12">
@@ -9780,10 +10005,11 @@
         <v>0</v>
       </c>
       <c r="G236" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120904</v>
       </c>
       <c r="H236" s="12">
+        <f t="shared" si="9"/>
         <v>1120903</v>
       </c>
       <c r="I236" s="12">
@@ -9808,10 +10034,11 @@
         <v>0</v>
       </c>
       <c r="G237" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120905</v>
       </c>
       <c r="H237" s="12">
+        <f t="shared" si="9"/>
         <v>1120904</v>
       </c>
       <c r="I237" s="12">
@@ -9836,10 +10063,11 @@
         <v>0</v>
       </c>
       <c r="G238" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120906</v>
       </c>
       <c r="H238" s="12">
+        <f t="shared" si="9"/>
         <v>1120905</v>
       </c>
       <c r="I238" s="12">
@@ -9864,10 +10092,11 @@
         <v>0</v>
       </c>
       <c r="G239" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120907</v>
       </c>
       <c r="H239" s="12">
+        <f t="shared" si="9"/>
         <v>1120906</v>
       </c>
       <c r="I239" s="12">
@@ -9892,10 +10121,11 @@
         <v>0</v>
       </c>
       <c r="G240" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120908</v>
       </c>
       <c r="H240" s="12">
+        <f t="shared" si="9"/>
         <v>1120907</v>
       </c>
       <c r="I240" s="12">
@@ -9920,10 +10150,11 @@
         <v>0</v>
       </c>
       <c r="G241" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120909</v>
       </c>
       <c r="H241" s="12">
+        <f t="shared" si="9"/>
         <v>1120908</v>
       </c>
       <c r="I241" s="12">
@@ -9948,10 +10179,11 @@
         <v>0</v>
       </c>
       <c r="G242" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120910</v>
       </c>
       <c r="H242" s="12">
+        <f t="shared" si="9"/>
         <v>1120909</v>
       </c>
       <c r="I242" s="12">
@@ -9976,10 +10208,11 @@
         <v>0</v>
       </c>
       <c r="G243" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120911</v>
       </c>
       <c r="H243" s="12">
+        <f t="shared" si="9"/>
         <v>1120910</v>
       </c>
       <c r="I243" s="12">
@@ -10004,10 +10237,11 @@
         <v>0</v>
       </c>
       <c r="G244" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120912</v>
       </c>
       <c r="H244" s="12">
+        <f t="shared" si="9"/>
         <v>1120911</v>
       </c>
       <c r="I244" s="12">
@@ -10032,10 +10266,11 @@
         <v>0</v>
       </c>
       <c r="G245" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120913</v>
       </c>
       <c r="H245" s="12">
+        <f t="shared" si="9"/>
         <v>1120912</v>
       </c>
       <c r="I245" s="12">
@@ -10060,10 +10295,11 @@
         <v>0</v>
       </c>
       <c r="G246" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120914</v>
       </c>
       <c r="H246" s="12">
+        <f t="shared" si="9"/>
         <v>1120913</v>
       </c>
       <c r="I246" s="12">
@@ -10088,10 +10324,11 @@
         <v>0</v>
       </c>
       <c r="G247" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1120915</v>
       </c>
       <c r="H247" s="12">
+        <f t="shared" si="9"/>
         <v>1120914</v>
       </c>
       <c r="I247" s="12">
@@ -10106,7 +10343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18243,7 +18480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21971,10 +22208,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>

--- a/Excel/镇魂街/章节关卡/章节表.xlsx
+++ b/Excel/镇魂街/章节关卡/章节表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\DataConfig\章节关卡\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\镇魂街\章节关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="chapter" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>LastId</t>
   </si>
   <si>
-    <t>NeedLevel</t>
-  </si>
-  <si>
     <t>所属章节</t>
   </si>
   <si>
@@ -155,12 +152,6 @@
     <t>FirstDropShow</t>
   </si>
   <si>
-    <t>DropShow</t>
-  </si>
-  <si>
-    <t>SceneName</t>
-  </si>
-  <si>
     <t>CostStamina</t>
   </si>
   <si>
@@ -201,9 +192,6 @@
   </si>
   <si>
     <t>Map_luoshajiedao_1-1</t>
-  </si>
-  <si>
-    <t>WaveId</t>
   </si>
   <si>
     <t>MonsterIds</t>
@@ -2395,6 +2383,22 @@
   </si>
   <si>
     <t>0#14#15#16#0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedLevel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaveId</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2856,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3002,7 +3006,7 @@
         <v>101</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>21</v>
@@ -3014,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -3023,7 +3027,7 @@
         <v>102</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>21</v>
@@ -3044,7 +3048,7 @@
         <v>103</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>21</v>
@@ -3065,7 +3069,7 @@
         <v>104</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>21</v>
@@ -3077,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -3086,7 +3090,7 @@
         <v>105</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>21</v>
@@ -3098,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -3107,7 +3111,7 @@
         <v>106</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>21</v>
@@ -3119,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -3128,7 +3132,7 @@
         <v>107</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>21</v>
@@ -3140,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -3149,7 +3153,7 @@
         <v>108</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>21</v>
@@ -3161,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -3170,7 +3174,7 @@
         <v>109</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>21</v>
@@ -3182,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3196,8 +3200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3235,8 +3239,8 @@
       <c r="H1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>29</v>
+      <c r="I1" s="4" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -3305,25 +3309,25 @@
         <v>13</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -3388,7 +3392,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -3414,7 +3418,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
@@ -3443,7 +3447,7 @@
         <v>101</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E10" s="12">
         <v>0</v>
@@ -3472,7 +3476,7 @@
         <v>101</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -3501,7 +3505,7 @@
         <v>101</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E12" s="12">
         <v>0</v>
@@ -3530,7 +3534,7 @@
         <v>101</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E13" s="12">
         <v>0</v>
@@ -3559,7 +3563,7 @@
         <v>102</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E14" s="12">
         <v>0</v>
@@ -3588,7 +3592,7 @@
         <v>102</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E15" s="12">
         <v>0</v>
@@ -3617,7 +3621,7 @@
         <v>102</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E16" s="12">
         <v>0</v>
@@ -3646,7 +3650,7 @@
         <v>102</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E17" s="12">
         <v>0</v>
@@ -3675,7 +3679,7 @@
         <v>102</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E18" s="12">
         <v>0</v>
@@ -3704,7 +3708,7 @@
         <v>102</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E19" s="12">
         <v>0</v>
@@ -3733,7 +3737,7 @@
         <v>102</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E20" s="12">
         <v>0</v>
@@ -3762,7 +3766,7 @@
         <v>102</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E21" s="12">
         <v>0</v>
@@ -3791,7 +3795,7 @@
         <v>102</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E22" s="12">
         <v>0</v>
@@ -3820,7 +3824,7 @@
         <v>103</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -3849,7 +3853,7 @@
         <v>103</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E24" s="12">
         <v>0</v>
@@ -3878,7 +3882,7 @@
         <v>103</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E25" s="12">
         <v>0</v>
@@ -3907,7 +3911,7 @@
         <v>103</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -3936,7 +3940,7 @@
         <v>103</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E27" s="12">
         <v>0</v>
@@ -3965,7 +3969,7 @@
         <v>103</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E28" s="12">
         <v>0</v>
@@ -3994,7 +3998,7 @@
         <v>103</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E29" s="12">
         <v>0</v>
@@ -4023,7 +4027,7 @@
         <v>103</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E30" s="12">
         <v>0</v>
@@ -4052,7 +4056,7 @@
         <v>103</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E31" s="12">
         <v>0</v>
@@ -4081,7 +4085,7 @@
         <v>103</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E32" s="12">
         <v>0</v>
@@ -4110,7 +4114,7 @@
         <v>103</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E33" s="12">
         <v>0</v>
@@ -4139,7 +4143,7 @@
         <v>103</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E34" s="12">
         <v>0</v>
@@ -4168,7 +4172,7 @@
         <v>103</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E35" s="12">
         <v>0</v>
@@ -4197,7 +4201,7 @@
         <v>103</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E36" s="12">
         <v>0</v>
@@ -4226,7 +4230,7 @@
         <v>103</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E37" s="12">
         <v>0</v>
@@ -4255,7 +4259,7 @@
         <v>104</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E38" s="12">
         <v>0</v>
@@ -4284,7 +4288,7 @@
         <v>104</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E39" s="12">
         <v>0</v>
@@ -4313,7 +4317,7 @@
         <v>104</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E40" s="12">
         <v>0</v>
@@ -4342,7 +4346,7 @@
         <v>104</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E41" s="12">
         <v>0</v>
@@ -4371,7 +4375,7 @@
         <v>104</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E42" s="12">
         <v>0</v>
@@ -4400,7 +4404,7 @@
         <v>104</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E43" s="12">
         <v>0</v>
@@ -4429,7 +4433,7 @@
         <v>104</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E44" s="12">
         <v>0</v>
@@ -4458,7 +4462,7 @@
         <v>104</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E45" s="12">
         <v>0</v>
@@ -4487,7 +4491,7 @@
         <v>104</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E46" s="12">
         <v>0</v>
@@ -4516,7 +4520,7 @@
         <v>104</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E47" s="12">
         <v>0</v>
@@ -4545,7 +4549,7 @@
         <v>104</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E48" s="12">
         <v>0</v>
@@ -4574,7 +4578,7 @@
         <v>104</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E49" s="12">
         <v>0</v>
@@ -4603,7 +4607,7 @@
         <v>104</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E50" s="12">
         <v>0</v>
@@ -4632,7 +4636,7 @@
         <v>104</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E51" s="12">
         <v>0</v>
@@ -4661,7 +4665,7 @@
         <v>104</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E52" s="12">
         <v>0</v>
@@ -4690,7 +4694,7 @@
         <v>105</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E53" s="12">
         <v>0</v>
@@ -4719,7 +4723,7 @@
         <v>105</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E54" s="12">
         <v>0</v>
@@ -4748,7 +4752,7 @@
         <v>105</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E55" s="12">
         <v>0</v>
@@ -4777,7 +4781,7 @@
         <v>105</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E56" s="12">
         <v>0</v>
@@ -4806,7 +4810,7 @@
         <v>105</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E57" s="12">
         <v>0</v>
@@ -4835,7 +4839,7 @@
         <v>105</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E58" s="12">
         <v>0</v>
@@ -4864,7 +4868,7 @@
         <v>105</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E59" s="12">
         <v>0</v>
@@ -4893,7 +4897,7 @@
         <v>105</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E60" s="12">
         <v>0</v>
@@ -4922,7 +4926,7 @@
         <v>105</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E61" s="12">
         <v>0</v>
@@ -4951,7 +4955,7 @@
         <v>105</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E62" s="12">
         <v>0</v>
@@ -4980,7 +4984,7 @@
         <v>105</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E63" s="12">
         <v>0</v>
@@ -5009,7 +5013,7 @@
         <v>105</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E64" s="12">
         <v>0</v>
@@ -5038,7 +5042,7 @@
         <v>105</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E65" s="12">
         <v>0</v>
@@ -5067,7 +5071,7 @@
         <v>105</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E66" s="12">
         <v>0</v>
@@ -5096,7 +5100,7 @@
         <v>105</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E67" s="12">
         <v>0</v>
@@ -5125,7 +5129,7 @@
         <v>106</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E68" s="12">
         <v>0</v>
@@ -5154,7 +5158,7 @@
         <v>106</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E69" s="12">
         <v>0</v>
@@ -5183,7 +5187,7 @@
         <v>106</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E70" s="12">
         <v>0</v>
@@ -5212,7 +5216,7 @@
         <v>106</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E71" s="12">
         <v>0</v>
@@ -5241,7 +5245,7 @@
         <v>106</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E72" s="12">
         <v>0</v>
@@ -5270,7 +5274,7 @@
         <v>106</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E73" s="12">
         <v>0</v>
@@ -5299,7 +5303,7 @@
         <v>106</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E74" s="12">
         <v>0</v>
@@ -5328,7 +5332,7 @@
         <v>106</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E75" s="12">
         <v>0</v>
@@ -5357,7 +5361,7 @@
         <v>106</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E76" s="12">
         <v>0</v>
@@ -5386,7 +5390,7 @@
         <v>106</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E77" s="12">
         <v>0</v>
@@ -5415,7 +5419,7 @@
         <v>106</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E78" s="12">
         <v>0</v>
@@ -5444,7 +5448,7 @@
         <v>106</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E79" s="12">
         <v>0</v>
@@ -5473,7 +5477,7 @@
         <v>106</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E80" s="12">
         <v>0</v>
@@ -5502,7 +5506,7 @@
         <v>106</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E81" s="12">
         <v>0</v>
@@ -5531,7 +5535,7 @@
         <v>106</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E82" s="12">
         <v>0</v>
@@ -5560,7 +5564,7 @@
         <v>107</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E83" s="12">
         <v>0</v>
@@ -5589,7 +5593,7 @@
         <v>107</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E84" s="12">
         <v>0</v>
@@ -5618,7 +5622,7 @@
         <v>107</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E85" s="12">
         <v>0</v>
@@ -5647,7 +5651,7 @@
         <v>107</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E86" s="12">
         <v>0</v>
@@ -5676,7 +5680,7 @@
         <v>107</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E87" s="12">
         <v>0</v>
@@ -5705,7 +5709,7 @@
         <v>107</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E88" s="12">
         <v>0</v>
@@ -5734,7 +5738,7 @@
         <v>107</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E89" s="12">
         <v>0</v>
@@ -5763,7 +5767,7 @@
         <v>107</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E90" s="12">
         <v>0</v>
@@ -5792,7 +5796,7 @@
         <v>107</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E91" s="12">
         <v>0</v>
@@ -5821,7 +5825,7 @@
         <v>107</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E92" s="12">
         <v>0</v>
@@ -5850,7 +5854,7 @@
         <v>107</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E93" s="12">
         <v>0</v>
@@ -5879,7 +5883,7 @@
         <v>107</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E94" s="12">
         <v>0</v>
@@ -5908,7 +5912,7 @@
         <v>107</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E95" s="12">
         <v>0</v>
@@ -5937,7 +5941,7 @@
         <v>107</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E96" s="12">
         <v>0</v>
@@ -5966,7 +5970,7 @@
         <v>107</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E97" s="12">
         <v>0</v>
@@ -5995,7 +5999,7 @@
         <v>108</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E98" s="12">
         <v>0</v>
@@ -6024,7 +6028,7 @@
         <v>108</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E99" s="12">
         <v>0</v>
@@ -6053,7 +6057,7 @@
         <v>108</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E100" s="12">
         <v>0</v>
@@ -6082,7 +6086,7 @@
         <v>108</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E101" s="12">
         <v>0</v>
@@ -6111,7 +6115,7 @@
         <v>108</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E102" s="12">
         <v>0</v>
@@ -6140,7 +6144,7 @@
         <v>108</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E103" s="12">
         <v>0</v>
@@ -6169,7 +6173,7 @@
         <v>108</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E104" s="12">
         <v>0</v>
@@ -6198,7 +6202,7 @@
         <v>108</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E105" s="12">
         <v>0</v>
@@ -6227,7 +6231,7 @@
         <v>108</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E106" s="12">
         <v>0</v>
@@ -6256,7 +6260,7 @@
         <v>108</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E107" s="12">
         <v>0</v>
@@ -6285,7 +6289,7 @@
         <v>108</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E108" s="12">
         <v>0</v>
@@ -6314,7 +6318,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E109" s="12">
         <v>0</v>
@@ -6343,7 +6347,7 @@
         <v>108</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E110" s="12">
         <v>0</v>
@@ -6372,7 +6376,7 @@
         <v>108</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E111" s="12">
         <v>0</v>
@@ -6401,7 +6405,7 @@
         <v>108</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E112" s="12">
         <v>0</v>
@@ -6430,7 +6434,7 @@
         <v>109</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E113" s="12">
         <v>0</v>
@@ -6459,7 +6463,7 @@
         <v>109</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E114" s="12">
         <v>0</v>
@@ -6488,7 +6492,7 @@
         <v>109</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E115" s="12">
         <v>0</v>
@@ -6517,7 +6521,7 @@
         <v>109</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E116" s="12">
         <v>0</v>
@@ -6546,7 +6550,7 @@
         <v>109</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E117" s="12">
         <v>0</v>
@@ -6575,7 +6579,7 @@
         <v>109</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E118" s="12">
         <v>0</v>
@@ -6604,7 +6608,7 @@
         <v>109</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E119" s="12">
         <v>0</v>
@@ -6633,7 +6637,7 @@
         <v>109</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E120" s="12">
         <v>0</v>
@@ -6662,7 +6666,7 @@
         <v>109</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E121" s="12">
         <v>0</v>
@@ -6691,7 +6695,7 @@
         <v>109</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E122" s="12">
         <v>0</v>
@@ -6720,7 +6724,7 @@
         <v>109</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E123" s="12">
         <v>0</v>
@@ -6749,7 +6753,7 @@
         <v>109</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E124" s="12">
         <v>0</v>
@@ -6778,7 +6782,7 @@
         <v>109</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E125" s="12">
         <v>0</v>
@@ -6807,7 +6811,7 @@
         <v>109</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E126" s="12">
         <v>0</v>
@@ -6836,7 +6840,7 @@
         <v>109</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E127" s="12">
         <v>0</v>
@@ -6865,7 +6869,7 @@
         <v>101</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E128" s="12">
         <v>1</v>
@@ -6893,7 +6897,7 @@
         <v>101</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E129" s="12">
         <v>1</v>
@@ -6922,7 +6926,7 @@
         <v>101</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E130" s="12">
         <v>1</v>
@@ -6951,7 +6955,7 @@
         <v>101</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E131" s="12">
         <v>1</v>
@@ -6980,7 +6984,7 @@
         <v>101</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E132" s="12">
         <v>1</v>
@@ -7009,7 +7013,7 @@
         <v>101</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E133" s="12">
         <v>1</v>
@@ -7038,7 +7042,7 @@
         <v>102</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E134" s="12">
         <v>1</v>
@@ -7067,7 +7071,7 @@
         <v>102</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E135" s="12">
         <v>1</v>
@@ -7096,7 +7100,7 @@
         <v>102</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E136" s="12">
         <v>1</v>
@@ -7125,7 +7129,7 @@
         <v>102</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E137" s="12">
         <v>1</v>
@@ -7154,7 +7158,7 @@
         <v>102</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E138" s="12">
         <v>1</v>
@@ -7183,7 +7187,7 @@
         <v>102</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E139" s="12">
         <v>1</v>
@@ -7212,7 +7216,7 @@
         <v>102</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E140" s="12">
         <v>1</v>
@@ -7241,7 +7245,7 @@
         <v>102</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E141" s="12">
         <v>1</v>
@@ -7270,7 +7274,7 @@
         <v>102</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E142" s="12">
         <v>1</v>
@@ -7299,7 +7303,7 @@
         <v>103</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E143" s="12">
         <v>1</v>
@@ -7328,7 +7332,7 @@
         <v>103</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E144" s="12">
         <v>1</v>
@@ -7357,7 +7361,7 @@
         <v>103</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E145" s="12">
         <v>1</v>
@@ -7386,7 +7390,7 @@
         <v>103</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E146" s="12">
         <v>1</v>
@@ -7415,7 +7419,7 @@
         <v>103</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E147" s="12">
         <v>1</v>
@@ -7444,7 +7448,7 @@
         <v>103</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E148" s="12">
         <v>1</v>
@@ -7473,7 +7477,7 @@
         <v>103</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E149" s="12">
         <v>1</v>
@@ -7502,7 +7506,7 @@
         <v>103</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E150" s="12">
         <v>1</v>
@@ -7531,7 +7535,7 @@
         <v>103</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E151" s="12">
         <v>1</v>
@@ -7560,7 +7564,7 @@
         <v>103</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E152" s="12">
         <v>1</v>
@@ -7589,7 +7593,7 @@
         <v>103</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E153" s="12">
         <v>1</v>
@@ -7618,7 +7622,7 @@
         <v>103</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E154" s="12">
         <v>1</v>
@@ -7647,7 +7651,7 @@
         <v>103</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E155" s="12">
         <v>1</v>
@@ -7676,7 +7680,7 @@
         <v>103</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E156" s="12">
         <v>1</v>
@@ -7705,7 +7709,7 @@
         <v>103</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E157" s="12">
         <v>1</v>
@@ -7734,7 +7738,7 @@
         <v>104</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E158" s="12">
         <v>1</v>
@@ -7763,7 +7767,7 @@
         <v>104</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E159" s="12">
         <v>1</v>
@@ -7792,7 +7796,7 @@
         <v>104</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E160" s="12">
         <v>1</v>
@@ -7821,7 +7825,7 @@
         <v>104</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E161" s="12">
         <v>1</v>
@@ -7850,7 +7854,7 @@
         <v>104</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E162" s="12">
         <v>1</v>
@@ -7879,7 +7883,7 @@
         <v>104</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E163" s="12">
         <v>1</v>
@@ -7908,7 +7912,7 @@
         <v>104</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E164" s="12">
         <v>1</v>
@@ -7937,7 +7941,7 @@
         <v>104</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E165" s="12">
         <v>1</v>
@@ -7966,7 +7970,7 @@
         <v>104</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E166" s="12">
         <v>1</v>
@@ -7995,7 +7999,7 @@
         <v>104</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E167" s="12">
         <v>1</v>
@@ -8024,7 +8028,7 @@
         <v>104</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E168" s="12">
         <v>1</v>
@@ -8053,7 +8057,7 @@
         <v>104</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E169" s="12">
         <v>1</v>
@@ -8082,7 +8086,7 @@
         <v>104</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E170" s="12">
         <v>1</v>
@@ -8111,7 +8115,7 @@
         <v>104</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E171" s="12">
         <v>1</v>
@@ -8140,7 +8144,7 @@
         <v>104</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E172" s="12">
         <v>1</v>
@@ -8169,7 +8173,7 @@
         <v>105</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E173" s="12">
         <v>1</v>
@@ -8198,7 +8202,7 @@
         <v>105</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E174" s="12">
         <v>1</v>
@@ -8227,7 +8231,7 @@
         <v>105</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E175" s="12">
         <v>1</v>
@@ -8256,7 +8260,7 @@
         <v>105</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E176" s="12">
         <v>1</v>
@@ -8285,7 +8289,7 @@
         <v>105</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E177" s="12">
         <v>1</v>
@@ -8314,7 +8318,7 @@
         <v>105</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E178" s="12">
         <v>1</v>
@@ -8343,7 +8347,7 @@
         <v>105</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E179" s="12">
         <v>1</v>
@@ -8372,7 +8376,7 @@
         <v>105</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E180" s="12">
         <v>1</v>
@@ -8401,7 +8405,7 @@
         <v>105</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E181" s="12">
         <v>1</v>
@@ -8430,7 +8434,7 @@
         <v>105</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E182" s="12">
         <v>1</v>
@@ -8459,7 +8463,7 @@
         <v>105</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E183" s="12">
         <v>1</v>
@@ -8488,7 +8492,7 @@
         <v>105</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E184" s="12">
         <v>1</v>
@@ -8517,7 +8521,7 @@
         <v>105</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E185" s="12">
         <v>1</v>
@@ -8546,7 +8550,7 @@
         <v>105</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E186" s="12">
         <v>1</v>
@@ -8575,7 +8579,7 @@
         <v>105</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E187" s="12">
         <v>1</v>
@@ -8604,7 +8608,7 @@
         <v>106</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E188" s="12">
         <v>1</v>
@@ -8633,7 +8637,7 @@
         <v>106</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E189" s="12">
         <v>1</v>
@@ -8662,7 +8666,7 @@
         <v>106</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E190" s="12">
         <v>1</v>
@@ -8691,7 +8695,7 @@
         <v>106</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E191" s="12">
         <v>1</v>
@@ -8720,7 +8724,7 @@
         <v>106</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E192" s="12">
         <v>1</v>
@@ -8749,7 +8753,7 @@
         <v>106</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E193" s="12">
         <v>1</v>
@@ -8778,7 +8782,7 @@
         <v>106</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E194" s="12">
         <v>1</v>
@@ -8807,7 +8811,7 @@
         <v>106</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E195" s="12">
         <v>1</v>
@@ -8836,7 +8840,7 @@
         <v>106</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E196" s="12">
         <v>1</v>
@@ -8865,7 +8869,7 @@
         <v>106</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E197" s="12">
         <v>1</v>
@@ -8894,7 +8898,7 @@
         <v>106</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E198" s="12">
         <v>1</v>
@@ -8923,7 +8927,7 @@
         <v>106</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E199" s="12">
         <v>1</v>
@@ -8952,7 +8956,7 @@
         <v>106</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E200" s="12">
         <v>1</v>
@@ -8981,7 +8985,7 @@
         <v>106</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E201" s="12">
         <v>1</v>
@@ -9010,7 +9014,7 @@
         <v>106</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E202" s="12">
         <v>1</v>
@@ -9039,7 +9043,7 @@
         <v>107</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E203" s="12">
         <v>1</v>
@@ -9068,7 +9072,7 @@
         <v>107</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E204" s="12">
         <v>1</v>
@@ -9097,7 +9101,7 @@
         <v>107</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E205" s="12">
         <v>1</v>
@@ -9126,7 +9130,7 @@
         <v>107</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E206" s="12">
         <v>1</v>
@@ -9155,7 +9159,7 @@
         <v>107</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E207" s="12">
         <v>1</v>
@@ -9184,7 +9188,7 @@
         <v>107</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E208" s="12">
         <v>1</v>
@@ -9213,7 +9217,7 @@
         <v>107</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E209" s="12">
         <v>1</v>
@@ -9242,7 +9246,7 @@
         <v>107</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E210" s="12">
         <v>1</v>
@@ -9271,7 +9275,7 @@
         <v>107</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E211" s="12">
         <v>1</v>
@@ -9300,7 +9304,7 @@
         <v>107</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E212" s="12">
         <v>1</v>
@@ -9329,7 +9333,7 @@
         <v>107</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E213" s="12">
         <v>1</v>
@@ -9358,7 +9362,7 @@
         <v>107</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E214" s="12">
         <v>1</v>
@@ -9387,7 +9391,7 @@
         <v>107</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E215" s="12">
         <v>1</v>
@@ -9416,7 +9420,7 @@
         <v>107</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E216" s="12">
         <v>1</v>
@@ -9445,7 +9449,7 @@
         <v>107</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E217" s="12">
         <v>1</v>
@@ -9474,7 +9478,7 @@
         <v>108</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E218" s="12">
         <v>1</v>
@@ -9503,7 +9507,7 @@
         <v>108</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E219" s="12">
         <v>1</v>
@@ -9532,7 +9536,7 @@
         <v>108</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E220" s="12">
         <v>1</v>
@@ -9561,7 +9565,7 @@
         <v>108</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E221" s="12">
         <v>1</v>
@@ -9590,7 +9594,7 @@
         <v>108</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E222" s="12">
         <v>1</v>
@@ -9619,7 +9623,7 @@
         <v>108</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E223" s="12">
         <v>1</v>
@@ -9648,7 +9652,7 @@
         <v>108</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E224" s="12">
         <v>1</v>
@@ -9677,7 +9681,7 @@
         <v>108</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E225" s="12">
         <v>1</v>
@@ -9706,7 +9710,7 @@
         <v>108</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E226" s="12">
         <v>1</v>
@@ -9735,7 +9739,7 @@
         <v>108</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E227" s="12">
         <v>1</v>
@@ -9764,7 +9768,7 @@
         <v>108</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E228" s="12">
         <v>1</v>
@@ -9793,7 +9797,7 @@
         <v>108</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E229" s="12">
         <v>1</v>
@@ -9822,7 +9826,7 @@
         <v>108</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E230" s="12">
         <v>1</v>
@@ -9851,7 +9855,7 @@
         <v>108</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E231" s="12">
         <v>1</v>
@@ -9880,7 +9884,7 @@
         <v>108</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E232" s="12">
         <v>1</v>
@@ -9909,7 +9913,7 @@
         <v>109</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E233" s="12">
         <v>1</v>
@@ -9938,7 +9942,7 @@
         <v>109</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E234" s="12">
         <v>1</v>
@@ -9967,7 +9971,7 @@
         <v>109</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E235" s="12">
         <v>1</v>
@@ -9996,7 +10000,7 @@
         <v>109</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E236" s="12">
         <v>1</v>
@@ -10025,7 +10029,7 @@
         <v>109</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E237" s="12">
         <v>1</v>
@@ -10054,7 +10058,7 @@
         <v>109</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E238" s="12">
         <v>1</v>
@@ -10083,7 +10087,7 @@
         <v>109</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E239" s="12">
         <v>1</v>
@@ -10112,7 +10116,7 @@
         <v>109</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E240" s="12">
         <v>1</v>
@@ -10141,7 +10145,7 @@
         <v>109</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E241" s="12">
         <v>1</v>
@@ -10170,7 +10174,7 @@
         <v>109</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E242" s="12">
         <v>1</v>
@@ -10199,7 +10203,7 @@
         <v>109</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E243" s="12">
         <v>1</v>
@@ -10228,7 +10232,7 @@
         <v>109</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E244" s="12">
         <v>1</v>
@@ -10257,7 +10261,7 @@
         <v>109</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E245" s="12">
         <v>1</v>
@@ -10286,7 +10290,7 @@
         <v>109</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E246" s="12">
         <v>1</v>
@@ -10315,7 +10319,7 @@
         <v>109</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E247" s="12">
         <v>1</v>
@@ -10346,8 +10350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10369,31 +10373,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="K1" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -10404,10 +10408,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>10</v>
@@ -10474,31 +10478,31 @@
         <v>13</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="J4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="K4" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -10564,13 +10568,13 @@
         <v>4001</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="12">
         <v>6</v>
@@ -10597,13 +10601,13 @@
         <v>4002</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="12">
         <v>6</v>
@@ -10630,13 +10634,13 @@
         <v>4003</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="12">
         <v>6</v>
@@ -10663,13 +10667,13 @@
         <v>4004</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H11" s="12">
         <v>6</v>
@@ -10696,13 +10700,13 @@
         <v>4005</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H12" s="12">
         <v>6</v>
@@ -10729,13 +10733,13 @@
         <v>4006</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H13" s="12">
         <v>6</v>
@@ -10762,13 +10766,13 @@
         <v>4007</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" s="12">
         <v>6</v>
@@ -10795,13 +10799,13 @@
         <v>4008</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H15" s="12">
         <v>6</v>
@@ -10828,13 +10832,13 @@
         <v>4009</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H16" s="12">
         <v>6</v>
@@ -10861,13 +10865,13 @@
         <v>4010</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H17" s="12">
         <v>6</v>
@@ -10894,13 +10898,13 @@
         <v>4011</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H18" s="12">
         <v>6</v>
@@ -10927,13 +10931,13 @@
         <v>4012</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H19" s="12">
         <v>6</v>
@@ -10960,13 +10964,13 @@
         <v>4013</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H20" s="12">
         <v>6</v>
@@ -10993,13 +10997,13 @@
         <v>4014</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H21" s="12">
         <v>6</v>
@@ -11026,13 +11030,13 @@
         <v>4015</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H22" s="12">
         <v>6</v>
@@ -11059,13 +11063,13 @@
         <v>4016</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H23" s="12">
         <v>6</v>
@@ -11092,13 +11096,13 @@
         <v>4017</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H24" s="12">
         <v>6</v>
@@ -11125,13 +11129,13 @@
         <v>4018</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H25" s="12">
         <v>6</v>
@@ -11158,13 +11162,13 @@
         <v>4019</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H26" s="12">
         <v>6</v>
@@ -11191,13 +11195,13 @@
         <v>4020</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H27" s="12">
         <v>6</v>
@@ -11224,13 +11228,13 @@
         <v>4021</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H28" s="12">
         <v>6</v>
@@ -11257,13 +11261,13 @@
         <v>4022</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H29" s="12">
         <v>6</v>
@@ -11290,13 +11294,13 @@
         <v>4023</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H30" s="12">
         <v>6</v>
@@ -11323,13 +11327,13 @@
         <v>4024</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H31" s="12">
         <v>6</v>
@@ -11356,13 +11360,13 @@
         <v>4025</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H32" s="12">
         <v>6</v>
@@ -11389,13 +11393,13 @@
         <v>4026</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H33" s="12">
         <v>6</v>
@@ -11422,13 +11426,13 @@
         <v>4027</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H34" s="12">
         <v>6</v>
@@ -11455,13 +11459,13 @@
         <v>4028</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H35" s="12">
         <v>6</v>
@@ -11488,13 +11492,13 @@
         <v>4029</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H36" s="12">
         <v>6</v>
@@ -11521,13 +11525,13 @@
         <v>4030</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H37" s="12">
         <v>6</v>
@@ -11554,13 +11558,13 @@
         <v>4031</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H38" s="12">
         <v>6</v>
@@ -11587,13 +11591,13 @@
         <v>4032</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H39" s="12">
         <v>6</v>
@@ -11620,13 +11624,13 @@
         <v>4033</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H40" s="12">
         <v>6</v>
@@ -11653,13 +11657,13 @@
         <v>4034</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H41" s="12">
         <v>6</v>
@@ -11686,13 +11690,13 @@
         <v>4035</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H42" s="12">
         <v>6</v>
@@ -11719,13 +11723,13 @@
         <v>4036</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H43" s="12">
         <v>6</v>
@@ -11752,13 +11756,13 @@
         <v>4037</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H44" s="12">
         <v>6</v>
@@ -11785,13 +11789,13 @@
         <v>4038</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H45" s="12">
         <v>6</v>
@@ -11818,13 +11822,13 @@
         <v>4039</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H46" s="12">
         <v>6</v>
@@ -11851,13 +11855,13 @@
         <v>4040</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H47" s="12">
         <v>6</v>
@@ -11884,13 +11888,13 @@
         <v>4041</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H48" s="12">
         <v>6</v>
@@ -11917,13 +11921,13 @@
         <v>4042</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H49" s="12">
         <v>6</v>
@@ -11950,13 +11954,13 @@
         <v>4043</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H50" s="12">
         <v>6</v>
@@ -11983,13 +11987,13 @@
         <v>4044</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H51" s="12">
         <v>6</v>
@@ -12016,13 +12020,13 @@
         <v>4045</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H52" s="12">
         <v>6</v>
@@ -12049,13 +12053,13 @@
         <v>4046</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H53" s="12">
         <v>6</v>
@@ -12082,13 +12086,13 @@
         <v>4047</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H54" s="12">
         <v>6</v>
@@ -12115,13 +12119,13 @@
         <v>4048</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H55" s="12">
         <v>6</v>
@@ -12148,13 +12152,13 @@
         <v>4049</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H56" s="12">
         <v>6</v>
@@ -12181,13 +12185,13 @@
         <v>4050</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H57" s="12">
         <v>6</v>
@@ -12214,13 +12218,13 @@
         <v>4051</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H58" s="12">
         <v>6</v>
@@ -12247,13 +12251,13 @@
         <v>4052</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H59" s="12">
         <v>6</v>
@@ -12280,13 +12284,13 @@
         <v>4053</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H60" s="12">
         <v>6</v>
@@ -12313,13 +12317,13 @@
         <v>4054</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H61" s="12">
         <v>6</v>
@@ -12346,13 +12350,13 @@
         <v>4055</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H62" s="12">
         <v>6</v>
@@ -12379,13 +12383,13 @@
         <v>4056</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H63" s="12">
         <v>6</v>
@@ -12412,13 +12416,13 @@
         <v>4057</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H64" s="12">
         <v>6</v>
@@ -12445,13 +12449,13 @@
         <v>4058</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H65" s="12">
         <v>6</v>
@@ -12478,13 +12482,13 @@
         <v>4059</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H66" s="12">
         <v>6</v>
@@ -12511,13 +12515,13 @@
         <v>4060</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H67" s="12">
         <v>6</v>
@@ -12544,13 +12548,13 @@
         <v>4061</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H68" s="12">
         <v>6</v>
@@ -12577,13 +12581,13 @@
         <v>4062</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H69" s="12">
         <v>6</v>
@@ -12610,13 +12614,13 @@
         <v>4063</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H70" s="12">
         <v>6</v>
@@ -12643,13 +12647,13 @@
         <v>4064</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H71" s="12">
         <v>6</v>
@@ -12676,13 +12680,13 @@
         <v>4065</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H72" s="12">
         <v>6</v>
@@ -12709,13 +12713,13 @@
         <v>4066</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H73" s="12">
         <v>6</v>
@@ -12742,13 +12746,13 @@
         <v>4067</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H74" s="12">
         <v>6</v>
@@ -12775,13 +12779,13 @@
         <v>4068</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H75" s="12">
         <v>6</v>
@@ -12808,13 +12812,13 @@
         <v>4069</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H76" s="12">
         <v>6</v>
@@ -12841,13 +12845,13 @@
         <v>4070</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H77" s="12">
         <v>6</v>
@@ -12874,13 +12878,13 @@
         <v>4071</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H78" s="12">
         <v>6</v>
@@ -12907,13 +12911,13 @@
         <v>4072</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H79" s="12">
         <v>6</v>
@@ -12940,13 +12944,13 @@
         <v>4073</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H80" s="12">
         <v>6</v>
@@ -12973,13 +12977,13 @@
         <v>4074</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H81" s="12">
         <v>6</v>
@@ -13006,13 +13010,13 @@
         <v>4075</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H82" s="12">
         <v>6</v>
@@ -13039,13 +13043,13 @@
         <v>4076</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H83" s="12">
         <v>6</v>
@@ -13072,13 +13076,13 @@
         <v>4077</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H84" s="12">
         <v>6</v>
@@ -13105,13 +13109,13 @@
         <v>4078</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H85" s="12">
         <v>6</v>
@@ -13138,13 +13142,13 @@
         <v>4079</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H86" s="12">
         <v>6</v>
@@ -13171,13 +13175,13 @@
         <v>4080</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H87" s="12">
         <v>6</v>
@@ -13204,13 +13208,13 @@
         <v>4081</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H88" s="12">
         <v>6</v>
@@ -13237,13 +13241,13 @@
         <v>4082</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H89" s="12">
         <v>6</v>
@@ -13270,13 +13274,13 @@
         <v>4083</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H90" s="12">
         <v>6</v>
@@ -13303,13 +13307,13 @@
         <v>4084</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H91" s="12">
         <v>6</v>
@@ -13336,13 +13340,13 @@
         <v>4085</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H92" s="12">
         <v>6</v>
@@ -13369,13 +13373,13 @@
         <v>4086</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H93" s="12">
         <v>6</v>
@@ -13402,13 +13406,13 @@
         <v>4087</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H94" s="12">
         <v>6</v>
@@ -13435,13 +13439,13 @@
         <v>4088</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H95" s="12">
         <v>6</v>
@@ -13468,13 +13472,13 @@
         <v>4089</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H96" s="12">
         <v>6</v>
@@ -13501,13 +13505,13 @@
         <v>4090</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H97" s="12">
         <v>6</v>
@@ -13534,13 +13538,13 @@
         <v>4091</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H98" s="12">
         <v>6</v>
@@ -13567,13 +13571,13 @@
         <v>4092</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H99" s="12">
         <v>6</v>
@@ -13600,13 +13604,13 @@
         <v>4093</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H100" s="12">
         <v>6</v>
@@ -13633,13 +13637,13 @@
         <v>4094</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H101" s="12">
         <v>6</v>
@@ -13666,13 +13670,13 @@
         <v>4095</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H102" s="12">
         <v>6</v>
@@ -13699,13 +13703,13 @@
         <v>4096</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H103" s="12">
         <v>6</v>
@@ -13732,13 +13736,13 @@
         <v>4097</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H104" s="12">
         <v>6</v>
@@ -13765,13 +13769,13 @@
         <v>4098</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H105" s="12">
         <v>6</v>
@@ -13798,13 +13802,13 @@
         <v>4099</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H106" s="12">
         <v>6</v>
@@ -13831,13 +13835,13 @@
         <v>4100</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H107" s="12">
         <v>6</v>
@@ -13864,13 +13868,13 @@
         <v>4101</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H108" s="12">
         <v>6</v>
@@ -13897,13 +13901,13 @@
         <v>4102</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H109" s="12">
         <v>6</v>
@@ -13930,13 +13934,13 @@
         <v>4103</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H110" s="12">
         <v>6</v>
@@ -13963,13 +13967,13 @@
         <v>4104</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H111" s="12">
         <v>6</v>
@@ -13996,13 +14000,13 @@
         <v>4105</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H112" s="12">
         <v>6</v>
@@ -14029,13 +14033,13 @@
         <v>4106</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H113" s="12">
         <v>6</v>
@@ -14062,13 +14066,13 @@
         <v>4107</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H114" s="12">
         <v>6</v>
@@ -14095,13 +14099,13 @@
         <v>4108</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H115" s="12">
         <v>6</v>
@@ -14128,13 +14132,13 @@
         <v>4109</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H116" s="12">
         <v>6</v>
@@ -14161,13 +14165,13 @@
         <v>4110</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H117" s="12">
         <v>6</v>
@@ -14194,13 +14198,13 @@
         <v>4111</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H118" s="12">
         <v>6</v>
@@ -14227,13 +14231,13 @@
         <v>4112</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H119" s="12">
         <v>6</v>
@@ -14260,13 +14264,13 @@
         <v>4113</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H120" s="12">
         <v>6</v>
@@ -14293,13 +14297,13 @@
         <v>4114</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H121" s="12">
         <v>6</v>
@@ -14326,13 +14330,13 @@
         <v>4115</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H122" s="12">
         <v>6</v>
@@ -14359,13 +14363,13 @@
         <v>4116</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H123" s="12">
         <v>6</v>
@@ -14392,13 +14396,13 @@
         <v>4117</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H124" s="12">
         <v>6</v>
@@ -14425,13 +14429,13 @@
         <v>4118</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H125" s="12">
         <v>6</v>
@@ -14458,13 +14462,13 @@
         <v>4119</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H126" s="12">
         <v>6</v>
@@ -14491,13 +14495,13 @@
         <v>4120</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H127" s="12">
         <v>6</v>
@@ -14524,13 +14528,13 @@
         <v>5001</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H128" s="12">
         <v>6</v>
@@ -14557,13 +14561,13 @@
         <v>5002</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H129" s="12">
         <v>6</v>
@@ -14590,13 +14594,13 @@
         <v>5003</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H130" s="12">
         <v>6</v>
@@ -14623,13 +14627,13 @@
         <v>5004</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H131" s="12">
         <v>6</v>
@@ -14656,13 +14660,13 @@
         <v>5005</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H132" s="12">
         <v>6</v>
@@ -14689,13 +14693,13 @@
         <v>5006</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H133" s="12">
         <v>6</v>
@@ -14722,13 +14726,13 @@
         <v>5007</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H134" s="12">
         <v>6</v>
@@ -14755,13 +14759,13 @@
         <v>5008</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H135" s="12">
         <v>6</v>
@@ -14788,13 +14792,13 @@
         <v>5009</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H136" s="12">
         <v>6</v>
@@ -14821,13 +14825,13 @@
         <v>5010</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H137" s="12">
         <v>6</v>
@@ -14854,13 +14858,13 @@
         <v>5011</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H138" s="12">
         <v>6</v>
@@ -14887,13 +14891,13 @@
         <v>5012</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H139" s="12">
         <v>6</v>
@@ -14920,13 +14924,13 @@
         <v>5013</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H140" s="12">
         <v>6</v>
@@ -14953,13 +14957,13 @@
         <v>5014</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H141" s="12">
         <v>6</v>
@@ -14986,13 +14990,13 @@
         <v>5015</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H142" s="12">
         <v>6</v>
@@ -15019,13 +15023,13 @@
         <v>5016</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H143" s="12">
         <v>6</v>
@@ -15052,13 +15056,13 @@
         <v>5017</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H144" s="12">
         <v>6</v>
@@ -15085,13 +15089,13 @@
         <v>5018</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H145" s="12">
         <v>6</v>
@@ -15118,13 +15122,13 @@
         <v>5019</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H146" s="12">
         <v>6</v>
@@ -15151,13 +15155,13 @@
         <v>5020</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H147" s="12">
         <v>6</v>
@@ -15184,13 +15188,13 @@
         <v>5021</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H148" s="12">
         <v>6</v>
@@ -15217,13 +15221,13 @@
         <v>5022</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H149" s="12">
         <v>6</v>
@@ -15250,13 +15254,13 @@
         <v>5023</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H150" s="12">
         <v>6</v>
@@ -15283,13 +15287,13 @@
         <v>5024</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H151" s="12">
         <v>6</v>
@@ -15316,13 +15320,13 @@
         <v>5025</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H152" s="12">
         <v>6</v>
@@ -15349,13 +15353,13 @@
         <v>5026</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H153" s="12">
         <v>6</v>
@@ -15382,13 +15386,13 @@
         <v>5027</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H154" s="12">
         <v>6</v>
@@ -15415,13 +15419,13 @@
         <v>5028</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H155" s="12">
         <v>6</v>
@@ -15448,13 +15452,13 @@
         <v>5029</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H156" s="12">
         <v>6</v>
@@ -15481,13 +15485,13 @@
         <v>5030</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H157" s="12">
         <v>6</v>
@@ -15514,13 +15518,13 @@
         <v>5031</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H158" s="12">
         <v>6</v>
@@ -15547,13 +15551,13 @@
         <v>5032</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H159" s="12">
         <v>6</v>
@@ -15580,13 +15584,13 @@
         <v>5033</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H160" s="12">
         <v>6</v>
@@ -15613,13 +15617,13 @@
         <v>5034</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H161" s="12">
         <v>6</v>
@@ -15646,13 +15650,13 @@
         <v>5035</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H162" s="12">
         <v>6</v>
@@ -15679,13 +15683,13 @@
         <v>5036</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H163" s="12">
         <v>6</v>
@@ -15712,13 +15716,13 @@
         <v>5037</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H164" s="12">
         <v>6</v>
@@ -15745,13 +15749,13 @@
         <v>5038</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H165" s="12">
         <v>6</v>
@@ -15778,13 +15782,13 @@
         <v>5039</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G166" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H166" s="12">
         <v>6</v>
@@ -15811,13 +15815,13 @@
         <v>5040</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H167" s="12">
         <v>6</v>
@@ -15844,13 +15848,13 @@
         <v>5041</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G168" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H168" s="12">
         <v>6</v>
@@ -15877,13 +15881,13 @@
         <v>5042</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G169" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H169" s="12">
         <v>6</v>
@@ -15910,13 +15914,13 @@
         <v>5043</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G170" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H170" s="12">
         <v>6</v>
@@ -15943,13 +15947,13 @@
         <v>5044</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G171" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H171" s="12">
         <v>6</v>
@@ -15976,13 +15980,13 @@
         <v>5045</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H172" s="12">
         <v>6</v>
@@ -16009,13 +16013,13 @@
         <v>5046</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H173" s="12">
         <v>6</v>
@@ -16042,13 +16046,13 @@
         <v>5047</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H174" s="12">
         <v>6</v>
@@ -16075,13 +16079,13 @@
         <v>5048</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H175" s="12">
         <v>6</v>
@@ -16108,13 +16112,13 @@
         <v>5049</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H176" s="12">
         <v>6</v>
@@ -16141,13 +16145,13 @@
         <v>5050</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F177" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G177" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H177" s="12">
         <v>6</v>
@@ -16174,13 +16178,13 @@
         <v>5051</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G178" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H178" s="12">
         <v>6</v>
@@ -16207,13 +16211,13 @@
         <v>5052</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H179" s="12">
         <v>6</v>
@@ -16240,13 +16244,13 @@
         <v>5053</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H180" s="12">
         <v>6</v>
@@ -16273,13 +16277,13 @@
         <v>5054</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F181" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H181" s="12">
         <v>6</v>
@@ -16306,13 +16310,13 @@
         <v>5055</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H182" s="12">
         <v>6</v>
@@ -16339,13 +16343,13 @@
         <v>5056</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H183" s="12">
         <v>6</v>
@@ -16372,13 +16376,13 @@
         <v>5057</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H184" s="12">
         <v>6</v>
@@ -16405,13 +16409,13 @@
         <v>5058</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H185" s="12">
         <v>6</v>
@@ -16438,13 +16442,13 @@
         <v>5059</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H186" s="12">
         <v>6</v>
@@ -16471,13 +16475,13 @@
         <v>5060</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G187" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H187" s="12">
         <v>6</v>
@@ -16504,13 +16508,13 @@
         <v>5061</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H188" s="12">
         <v>6</v>
@@ -16537,13 +16541,13 @@
         <v>5062</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G189" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H189" s="12">
         <v>6</v>
@@ -16570,13 +16574,13 @@
         <v>5063</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F190" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G190" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H190" s="12">
         <v>6</v>
@@ -16603,13 +16607,13 @@
         <v>5064</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F191" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G191" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H191" s="12">
         <v>6</v>
@@ -16636,13 +16640,13 @@
         <v>5065</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F192" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G192" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H192" s="12">
         <v>6</v>
@@ -16669,13 +16673,13 @@
         <v>5066</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F193" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G193" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H193" s="12">
         <v>6</v>
@@ -16702,13 +16706,13 @@
         <v>5067</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H194" s="12">
         <v>6</v>
@@ -16735,13 +16739,13 @@
         <v>5068</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G195" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H195" s="12">
         <v>6</v>
@@ -16768,13 +16772,13 @@
         <v>5069</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H196" s="12">
         <v>6</v>
@@ -16801,13 +16805,13 @@
         <v>5070</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H197" s="12">
         <v>6</v>
@@ -16834,13 +16838,13 @@
         <v>5071</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H198" s="12">
         <v>6</v>
@@ -16867,13 +16871,13 @@
         <v>5072</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G199" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H199" s="12">
         <v>6</v>
@@ -16900,13 +16904,13 @@
         <v>5073</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F200" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G200" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H200" s="12">
         <v>6</v>
@@ -16933,13 +16937,13 @@
         <v>5074</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H201" s="12">
         <v>6</v>
@@ -16966,13 +16970,13 @@
         <v>5075</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F202" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H202" s="12">
         <v>6</v>
@@ -16999,13 +17003,13 @@
         <v>5076</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H203" s="12">
         <v>6</v>
@@ -17032,13 +17036,13 @@
         <v>5077</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G204" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H204" s="12">
         <v>6</v>
@@ -17065,13 +17069,13 @@
         <v>5078</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G205" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H205" s="12">
         <v>6</v>
@@ -17098,13 +17102,13 @@
         <v>5079</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G206" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H206" s="12">
         <v>6</v>
@@ -17131,13 +17135,13 @@
         <v>5080</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G207" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H207" s="12">
         <v>6</v>
@@ -17164,13 +17168,13 @@
         <v>5081</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H208" s="12">
         <v>6</v>
@@ -17197,13 +17201,13 @@
         <v>5082</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F209" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G209" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H209" s="12">
         <v>6</v>
@@ -17230,13 +17234,13 @@
         <v>5083</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F210" s="12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G210" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H210" s="12">
         <v>6</v>
@@ -17263,13 +17267,13 @@
         <v>5084</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F211" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G211" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H211" s="12">
         <v>6</v>
@@ -17296,13 +17300,13 @@
         <v>5085</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G212" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H212" s="12">
         <v>6</v>
@@ -17329,13 +17333,13 @@
         <v>5086</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G213" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H213" s="12">
         <v>6</v>
@@ -17362,13 +17366,13 @@
         <v>5087</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G214" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H214" s="12">
         <v>6</v>
@@ -17395,13 +17399,13 @@
         <v>5088</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G215" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H215" s="12">
         <v>6</v>
@@ -17428,13 +17432,13 @@
         <v>5089</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F216" s="12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G216" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H216" s="12">
         <v>6</v>
@@ -17461,13 +17465,13 @@
         <v>5090</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F217" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G217" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H217" s="12">
         <v>6</v>
@@ -17494,13 +17498,13 @@
         <v>5091</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G218" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H218" s="12">
         <v>6</v>
@@ -17527,13 +17531,13 @@
         <v>5092</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G219" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H219" s="12">
         <v>6</v>
@@ -17560,13 +17564,13 @@
         <v>5093</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G220" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H220" s="12">
         <v>6</v>
@@ -17593,13 +17597,13 @@
         <v>5094</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G221" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H221" s="12">
         <v>6</v>
@@ -17626,13 +17630,13 @@
         <v>5095</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F222" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H222" s="12">
         <v>6</v>
@@ -17659,13 +17663,13 @@
         <v>5096</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F223" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G223" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H223" s="12">
         <v>6</v>
@@ -17692,13 +17696,13 @@
         <v>5097</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H224" s="12">
         <v>6</v>
@@ -17725,13 +17729,13 @@
         <v>5098</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G225" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H225" s="12">
         <v>6</v>
@@ -17758,13 +17762,13 @@
         <v>5099</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F226" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H226" s="12">
         <v>6</v>
@@ -17791,13 +17795,13 @@
         <v>5100</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F227" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H227" s="12">
         <v>6</v>
@@ -17824,13 +17828,13 @@
         <v>5101</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F228" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H228" s="12">
         <v>6</v>
@@ -17857,13 +17861,13 @@
         <v>5102</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F229" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H229" s="12">
         <v>6</v>
@@ -17890,13 +17894,13 @@
         <v>5103</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F230" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H230" s="12">
         <v>6</v>
@@ -17923,13 +17927,13 @@
         <v>5104</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F231" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H231" s="12">
         <v>6</v>
@@ -17956,13 +17960,13 @@
         <v>5105</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F232" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H232" s="12">
         <v>6</v>
@@ -17989,13 +17993,13 @@
         <v>5106</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F233" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G233" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H233" s="12">
         <v>6</v>
@@ -18022,13 +18026,13 @@
         <v>5107</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F234" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H234" s="12">
         <v>6</v>
@@ -18055,13 +18059,13 @@
         <v>5108</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F235" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H235" s="12">
         <v>6</v>
@@ -18088,13 +18092,13 @@
         <v>5109</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F236" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H236" s="12">
         <v>6</v>
@@ -18121,13 +18125,13 @@
         <v>5110</v>
       </c>
       <c r="E237" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F237" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H237" s="12">
         <v>6</v>
@@ -18154,13 +18158,13 @@
         <v>5111</v>
       </c>
       <c r="E238" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F238" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H238" s="12">
         <v>6</v>
@@ -18187,13 +18191,13 @@
         <v>5112</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F239" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H239" s="12">
         <v>6</v>
@@ -18220,13 +18224,13 @@
         <v>5113</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F240" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H240" s="12">
         <v>6</v>
@@ -18253,13 +18257,13 @@
         <v>5114</v>
       </c>
       <c r="E241" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F241" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H241" s="12">
         <v>6</v>
@@ -18286,13 +18290,13 @@
         <v>5115</v>
       </c>
       <c r="E242" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F242" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G242" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H242" s="12">
         <v>6</v>
@@ -18319,13 +18323,13 @@
         <v>5116</v>
       </c>
       <c r="E243" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F243" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G243" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H243" s="12">
         <v>6</v>
@@ -18352,13 +18356,13 @@
         <v>5117</v>
       </c>
       <c r="E244" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F244" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H244" s="12">
         <v>6</v>
@@ -18385,13 +18389,13 @@
         <v>5118</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F245" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H245" s="12">
         <v>6</v>
@@ -18418,13 +18422,13 @@
         <v>5119</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F246" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H246" s="12">
         <v>6</v>
@@ -18451,13 +18455,13 @@
         <v>5120</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F247" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G247" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H247" s="12">
         <v>6</v>
@@ -18484,7 +18488,7 @@
   <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18509,10 +18513,10 @@
         <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>410</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18529,7 +18533,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18557,13 +18561,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18613,7 +18617,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -18628,7 +18632,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -18643,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -18658,7 +18662,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -18673,7 +18677,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -18688,7 +18692,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -18703,7 +18707,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -18718,7 +18722,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -18733,7 +18737,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -18748,7 +18752,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -18763,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -18778,7 +18782,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -18793,7 +18797,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -18808,7 +18812,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -18823,7 +18827,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -18838,7 +18842,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -18853,7 +18857,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -18868,7 +18872,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -18883,7 +18887,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -18898,7 +18902,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -18913,7 +18917,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -18928,7 +18932,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -18943,7 +18947,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -18958,7 +18962,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -18973,7 +18977,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -18988,7 +18992,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -19003,7 +19007,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -19018,7 +19022,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -19033,7 +19037,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -19048,7 +19052,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -19063,7 +19067,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -19078,7 +19082,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -19093,7 +19097,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -19108,7 +19112,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -19123,7 +19127,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -19138,7 +19142,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -19153,7 +19157,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -19168,7 +19172,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -19183,7 +19187,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -19198,7 +19202,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -19213,7 +19217,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -19228,7 +19232,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -19243,7 +19247,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -19258,7 +19262,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -19273,7 +19277,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -19288,7 +19292,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -19303,7 +19307,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
@@ -19318,7 +19322,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -19333,7 +19337,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
@@ -19348,7 +19352,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
@@ -19363,7 +19367,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
@@ -19378,7 +19382,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
@@ -19393,7 +19397,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
@@ -19408,7 +19412,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
@@ -19423,7 +19427,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
@@ -19438,7 +19442,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
@@ -19453,7 +19457,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
@@ -19468,7 +19472,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
@@ -19483,7 +19487,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
@@ -19498,7 +19502,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
@@ -19513,7 +19517,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
@@ -19528,7 +19532,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
@@ -19543,7 +19547,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
@@ -19558,7 +19562,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
@@ -19573,7 +19577,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
@@ -19588,7 +19592,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
@@ -19603,7 +19607,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
@@ -19618,7 +19622,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
@@ -19633,7 +19637,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
@@ -19648,7 +19652,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
@@ -19663,7 +19667,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
@@ -19678,7 +19682,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
@@ -19693,7 +19697,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
@@ -19708,7 +19712,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
@@ -19723,7 +19727,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
@@ -19738,7 +19742,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
@@ -19753,7 +19757,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
@@ -19768,7 +19772,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
@@ -19783,7 +19787,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
@@ -19798,7 +19802,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -19813,7 +19817,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
@@ -19828,7 +19832,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
@@ -19843,7 +19847,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
@@ -19858,7 +19862,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
@@ -19873,7 +19877,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
@@ -19888,7 +19892,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
@@ -19903,7 +19907,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
@@ -19918,7 +19922,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
@@ -19933,7 +19937,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
@@ -19948,7 +19952,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
@@ -19963,7 +19967,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
@@ -19978,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
@@ -19993,7 +19997,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
@@ -20008,7 +20012,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
@@ -20023,7 +20027,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
@@ -20038,7 +20042,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
@@ -20053,7 +20057,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
@@ -20068,7 +20072,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
@@ -20083,7 +20087,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
@@ -20098,7 +20102,7 @@
         <v>1</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
@@ -20113,7 +20117,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
@@ -20128,7 +20132,7 @@
         <v>1</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
@@ -20143,7 +20147,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
@@ -20158,7 +20162,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
@@ -20173,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
@@ -20188,7 +20192,7 @@
         <v>1</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
@@ -20203,7 +20207,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
@@ -20218,7 +20222,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
@@ -20233,7 +20237,7 @@
         <v>1</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
@@ -20248,7 +20252,7 @@
         <v>1</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
@@ -20263,7 +20267,7 @@
         <v>1</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
@@ -20278,7 +20282,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
@@ -20293,7 +20297,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
@@ -20308,7 +20312,7 @@
         <v>1</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
@@ -20323,7 +20327,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
@@ -20338,7 +20342,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
@@ -20353,7 +20357,7 @@
         <v>1</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
@@ -20368,7 +20372,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
@@ -20383,7 +20387,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
@@ -20398,7 +20402,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
@@ -20413,7 +20417,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
@@ -20428,7 +20432,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
@@ -20443,7 +20447,7 @@
         <v>1</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
@@ -20458,7 +20462,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
@@ -20473,7 +20477,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
@@ -20488,7 +20492,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
@@ -20503,7 +20507,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
@@ -20518,7 +20522,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
@@ -20533,7 +20537,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
@@ -20548,7 +20552,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
@@ -20563,7 +20567,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
@@ -20578,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
@@ -20593,7 +20597,7 @@
         <v>1</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
@@ -20608,7 +20612,7 @@
         <v>1</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
@@ -20623,7 +20627,7 @@
         <v>1</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
@@ -20638,7 +20642,7 @@
         <v>1</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
@@ -20653,7 +20657,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
@@ -20668,7 +20672,7 @@
         <v>1</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
@@ -20683,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
@@ -20698,7 +20702,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
@@ -20713,7 +20717,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
@@ -20728,7 +20732,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
@@ -20743,7 +20747,7 @@
         <v>1</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
@@ -20758,7 +20762,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
@@ -20773,7 +20777,7 @@
         <v>1</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
@@ -20788,7 +20792,7 @@
         <v>1</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
@@ -20803,7 +20807,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
@@ -20818,7 +20822,7 @@
         <v>1</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
@@ -20833,7 +20837,7 @@
         <v>1</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
@@ -20848,7 +20852,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
@@ -20863,7 +20867,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
@@ -20878,7 +20882,7 @@
         <v>1</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
@@ -20893,7 +20897,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
@@ -20908,7 +20912,7 @@
         <v>1</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
@@ -20923,7 +20927,7 @@
         <v>1</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
@@ -20938,7 +20942,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
@@ -20953,7 +20957,7 @@
         <v>1</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
@@ -20968,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
@@ -20983,7 +20987,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
@@ -20998,7 +21002,7 @@
         <v>1</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
@@ -21013,7 +21017,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
@@ -21028,7 +21032,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
@@ -21043,7 +21047,7 @@
         <v>1</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
@@ -21058,7 +21062,7 @@
         <v>1</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
@@ -21073,7 +21077,7 @@
         <v>1</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
@@ -21088,7 +21092,7 @@
         <v>1</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
@@ -21103,7 +21107,7 @@
         <v>1</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
@@ -21118,7 +21122,7 @@
         <v>1</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
@@ -21133,7 +21137,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
@@ -21148,7 +21152,7 @@
         <v>1</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
@@ -21163,7 +21167,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
@@ -21178,7 +21182,7 @@
         <v>1</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
@@ -21193,7 +21197,7 @@
         <v>1</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
@@ -21208,7 +21212,7 @@
         <v>1</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
@@ -21223,7 +21227,7 @@
         <v>1</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
@@ -21238,7 +21242,7 @@
         <v>1</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
@@ -21253,7 +21257,7 @@
         <v>1</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
@@ -21268,7 +21272,7 @@
         <v>1</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
@@ -21283,7 +21287,7 @@
         <v>1</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
@@ -21298,7 +21302,7 @@
         <v>1</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
@@ -21313,7 +21317,7 @@
         <v>1</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
@@ -21328,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
@@ -21343,7 +21347,7 @@
         <v>1</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
@@ -21358,7 +21362,7 @@
         <v>1</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
@@ -21373,7 +21377,7 @@
         <v>1</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.15">
@@ -21388,7 +21392,7 @@
         <v>1</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
@@ -21403,7 +21407,7 @@
         <v>1</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
@@ -21418,7 +21422,7 @@
         <v>1</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
@@ -21433,7 +21437,7 @@
         <v>1</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
@@ -21448,7 +21452,7 @@
         <v>1</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
@@ -21463,7 +21467,7 @@
         <v>1</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
@@ -21478,7 +21482,7 @@
         <v>1</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
@@ -21493,7 +21497,7 @@
         <v>1</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
@@ -21508,7 +21512,7 @@
         <v>1</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
@@ -21523,7 +21527,7 @@
         <v>1</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
@@ -21538,7 +21542,7 @@
         <v>1</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
@@ -21553,7 +21557,7 @@
         <v>1</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
@@ -21568,7 +21572,7 @@
         <v>1</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
@@ -21583,7 +21587,7 @@
         <v>1</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
@@ -21598,7 +21602,7 @@
         <v>1</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.15">
@@ -21613,7 +21617,7 @@
         <v>1</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.15">
@@ -21628,7 +21632,7 @@
         <v>1</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
@@ -21643,7 +21647,7 @@
         <v>1</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
@@ -21658,7 +21662,7 @@
         <v>1</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
@@ -21673,7 +21677,7 @@
         <v>1</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
@@ -21688,7 +21692,7 @@
         <v>1</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
@@ -21703,7 +21707,7 @@
         <v>1</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.15">
@@ -21718,7 +21722,7 @@
         <v>1</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
@@ -21733,7 +21737,7 @@
         <v>1</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
@@ -21748,7 +21752,7 @@
         <v>1</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
@@ -21763,7 +21767,7 @@
         <v>1</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
@@ -21778,7 +21782,7 @@
         <v>1</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
@@ -21793,7 +21797,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.15">
@@ -21808,7 +21812,7 @@
         <v>1</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
@@ -21823,7 +21827,7 @@
         <v>1</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.15">
@@ -21838,7 +21842,7 @@
         <v>1</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
@@ -21853,7 +21857,7 @@
         <v>1</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
@@ -21868,7 +21872,7 @@
         <v>1</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
@@ -21883,7 +21887,7 @@
         <v>1</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.15">
@@ -21898,7 +21902,7 @@
         <v>1</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.15">
@@ -21913,7 +21917,7 @@
         <v>1</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.15">
@@ -21928,7 +21932,7 @@
         <v>1</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
@@ -21943,7 +21947,7 @@
         <v>1</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.15">
@@ -21958,7 +21962,7 @@
         <v>1</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
@@ -21973,7 +21977,7 @@
         <v>1</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
@@ -21988,7 +21992,7 @@
         <v>1</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
@@ -22003,7 +22007,7 @@
         <v>1</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
@@ -22018,7 +22022,7 @@
         <v>1</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.15">
@@ -22033,7 +22037,7 @@
         <v>1</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
@@ -22048,7 +22052,7 @@
         <v>1</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
@@ -22063,7 +22067,7 @@
         <v>1</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
@@ -22078,7 +22082,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
@@ -22093,7 +22097,7 @@
         <v>1</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.15">
@@ -22108,7 +22112,7 @@
         <v>1</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.15">
@@ -22123,7 +22127,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
@@ -22138,7 +22142,7 @@
         <v>1</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
@@ -22153,7 +22157,7 @@
         <v>1</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.15">
@@ -22168,7 +22172,7 @@
         <v>1</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.15">
@@ -22183,7 +22187,7 @@
         <v>1</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.15">
@@ -22198,7 +22202,7 @@
         <v>1</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -22245,55 +22249,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -22304,10 +22308,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -22322,28 +22326,28 @@
         <v>8</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>8</v>
@@ -22419,58 +22423,58 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -22580,10 +22584,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E8" s="9">
         <v>2</v>
@@ -22631,10 +22635,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E9" s="9">
         <v>2</v>
@@ -22682,10 +22686,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E10" s="9">
         <v>2</v>
@@ -22733,10 +22737,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E11" s="9">
         <v>3</v>
@@ -22784,10 +22788,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
@@ -22835,10 +22839,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -22886,10 +22890,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E14" s="9">
         <v>3</v>
@@ -22937,10 +22941,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E15" s="9">
         <v>1</v>
@@ -22988,10 +22992,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E16" s="9">
         <v>3</v>
@@ -23039,10 +23043,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E17" s="9">
         <v>3</v>
@@ -23090,10 +23094,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E18" s="9">
         <v>3</v>
@@ -23120,7 +23124,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9">
@@ -23143,10 +23147,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E19" s="9">
         <v>3</v>
@@ -23198,10 +23202,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E20" s="9">
         <v>3</v>
@@ -23249,10 +23253,10 @@
         <v>14</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E21" s="9">
         <v>2</v>
@@ -23300,10 +23304,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E22" s="9">
         <v>2</v>
@@ -23351,10 +23355,10 @@
         <v>16</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E23" s="9">
         <v>2</v>
